--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>2202.1</v>
+        <v>2201.37</v>
       </c>
       <c r="C7" t="n">
-        <v>10869.33</v>
+        <v>10866.06</v>
       </c>
       <c r="D7" t="n">
-        <v>1183.788415841584</v>
+        <v>1183.432277227722</v>
       </c>
       <c r="E7" t="n">
-        <v>1183.788415841584</v>
+        <v>1183.432277227722</v>
       </c>
       <c r="F7" t="n">
-        <v>1076.171287128713</v>
+        <v>1075.847524752475</v>
       </c>
       <c r="G7" t="n">
-        <v>968.5541584158414</v>
+        <v>968.2627722772274</v>
       </c>
       <c r="H7" t="n">
-        <v>860.9370297029701</v>
+        <v>860.67801980198</v>
       </c>
       <c r="I7" t="n">
-        <v>753.319900990099</v>
+        <v>753.0932673267325</v>
       </c>
       <c r="J7" t="n">
-        <v>753.319900990099</v>
+        <v>753.0932673267325</v>
       </c>
       <c r="K7" t="n">
-        <v>645.7027722772275</v>
+        <v>645.508514851485</v>
       </c>
       <c r="L7" t="n">
-        <v>538.0856435643564</v>
+        <v>537.9237623762375</v>
       </c>
       <c r="M7" t="n">
-        <v>1183.788415841584</v>
+        <v>1183.432277227722</v>
       </c>
       <c r="N7" t="n">
-        <v>430.4685148514851</v>
+        <v>430.33900990099</v>
       </c>
       <c r="O7" t="n">
-        <v>322.8513861386137</v>
+        <v>322.7542574257425</v>
       </c>
       <c r="P7" t="n">
-        <v>322.8513861386137</v>
+        <v>322.7542574257425</v>
       </c>
       <c r="Q7" t="n">
-        <v>215.2342574257425</v>
+        <v>215.169504950495</v>
       </c>
       <c r="R7" t="n">
-        <v>215.2342574257425</v>
+        <v>215.169504950495</v>
       </c>
       <c r="S7" t="n">
-        <v>215.2342574257425</v>
+        <v>215.169504950495</v>
       </c>
     </row>
     <row r="8">
@@ -889,58 +889,58 @@
         <v>3605</v>
       </c>
       <c r="B8" t="n">
-        <v>595.97</v>
+        <v>595.87</v>
       </c>
       <c r="C8" t="n">
-        <v>2403.15</v>
+        <v>2402.699999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>237.9356435643564</v>
+        <v>237.8910891089108</v>
       </c>
       <c r="E8" t="n">
-        <v>214.1420792079207</v>
+        <v>214.1019801980197</v>
       </c>
       <c r="F8" t="n">
-        <v>214.1420792079207</v>
+        <v>214.1019801980197</v>
       </c>
       <c r="G8" t="n">
-        <v>190.3485148514851</v>
+        <v>190.3128712871287</v>
       </c>
       <c r="H8" t="n">
-        <v>166.5549504950495</v>
+        <v>166.5237623762376</v>
       </c>
       <c r="I8" t="n">
-        <v>166.5549504950495</v>
+        <v>166.5237623762376</v>
       </c>
       <c r="J8" t="n">
-        <v>166.5549504950495</v>
+        <v>166.5237623762376</v>
       </c>
       <c r="K8" t="n">
-        <v>166.5549504950495</v>
+        <v>166.5237623762376</v>
       </c>
       <c r="L8" t="n">
-        <v>118.9678217821782</v>
+        <v>118.9455445544554</v>
       </c>
       <c r="M8" t="n">
-        <v>237.9356435643564</v>
+        <v>237.8910891089108</v>
       </c>
       <c r="N8" t="n">
-        <v>95.17425742574257</v>
+        <v>95.15643564356434</v>
       </c>
       <c r="O8" t="n">
-        <v>71.38069306930691</v>
+        <v>71.36732673267325</v>
       </c>
       <c r="P8" t="n">
-        <v>95.17425742574257</v>
+        <v>95.15643564356434</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.17425742574257</v>
+        <v>95.15643564356434</v>
       </c>
       <c r="R8" t="n">
-        <v>71.38069306930691</v>
+        <v>71.36732673267325</v>
       </c>
       <c r="S8" t="n">
-        <v>95.17425742574257</v>
+        <v>95.15643564356434</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         <v>2404</v>
       </c>
       <c r="B10" t="n">
-        <v>1906.93</v>
+        <v>1906.04</v>
       </c>
       <c r="C10" t="n">
-        <v>8510.499999999998</v>
+        <v>8506.529999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>926.8861386138611</v>
+        <v>926.4537623762375</v>
       </c>
       <c r="E10" t="n">
-        <v>842.6237623762374</v>
+        <v>842.2306930693068</v>
       </c>
       <c r="F10" t="n">
-        <v>842.6237623762374</v>
+        <v>842.2306930693068</v>
       </c>
       <c r="G10" t="n">
-        <v>758.3613861386137</v>
+        <v>758.0076237623762</v>
       </c>
       <c r="H10" t="n">
-        <v>674.09900990099</v>
+        <v>673.7845544554455</v>
       </c>
       <c r="I10" t="n">
-        <v>589.8366336633662</v>
+        <v>589.5614851485149</v>
       </c>
       <c r="J10" t="n">
-        <v>589.8366336633662</v>
+        <v>589.5614851485149</v>
       </c>
       <c r="K10" t="n">
-        <v>505.5742574257424</v>
+        <v>505.338415841584</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3118811881187</v>
+        <v>421.1153465346534</v>
       </c>
       <c r="M10" t="n">
-        <v>926.8861386138611</v>
+        <v>926.4537623762375</v>
       </c>
       <c r="N10" t="n">
-        <v>337.049504950495</v>
+        <v>336.8922772277227</v>
       </c>
       <c r="O10" t="n">
-        <v>252.7871287128712</v>
+        <v>252.669207920792</v>
       </c>
       <c r="P10" t="n">
-        <v>252.7871287128712</v>
+        <v>252.669207920792</v>
       </c>
       <c r="Q10" t="n">
-        <v>252.7871287128712</v>
+        <v>252.669207920792</v>
       </c>
       <c r="R10" t="n">
-        <v>168.5247524752475</v>
+        <v>168.4461386138614</v>
       </c>
       <c r="S10" t="n">
-        <v>168.5247524752475</v>
+        <v>168.4461386138614</v>
       </c>
     </row>
     <row r="11">
@@ -1125,58 +1125,58 @@
         <v>209</v>
       </c>
       <c r="B12" t="n">
-        <v>165.65</v>
+        <v>165.53</v>
       </c>
       <c r="C12" t="n">
-        <v>771.1699999999998</v>
+        <v>770.6299999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>69.40529999999998</v>
+        <v>69.35669999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>61.69359999999999</v>
+        <v>61.65039999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>61.69359999999999</v>
+        <v>61.65039999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>53.98189999999999</v>
+        <v>53.94409999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>46.27019999999999</v>
+        <v>46.23779999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>46.27019999999999</v>
+        <v>46.23779999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>53.98189999999999</v>
+        <v>53.94409999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>46.27019999999999</v>
+        <v>46.23779999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>46.27019999999999</v>
+        <v>46.23779999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>61.69359999999999</v>
+        <v>61.65039999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>46.27019999999999</v>
+        <v>46.23779999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>30.84679999999999</v>
+        <v>30.8252</v>
       </c>
       <c r="P12" t="n">
-        <v>30.84679999999999</v>
+        <v>30.8252</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.84679999999999</v>
+        <v>30.8252</v>
       </c>
       <c r="R12" t="n">
-        <v>23.13509999999999</v>
+        <v>23.11889999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>61.69359999999999</v>
+        <v>61.65039999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1184,507 +1184,435 @@
         <v>206</v>
       </c>
       <c r="B13" t="n">
-        <v>176.78</v>
+        <v>176.74</v>
       </c>
       <c r="C13" t="n">
-        <v>841.0999999999999</v>
+        <v>840.9299999999998</v>
       </c>
       <c r="D13" t="n">
-        <v>75.69899999999998</v>
+        <v>75.68369999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67.288</v>
+        <v>67.27439999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>67.288</v>
+        <v>67.27439999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>58.877</v>
+        <v>58.86509999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>50.46599999999999</v>
+        <v>50.45579999999998</v>
       </c>
       <c r="I13" t="n">
-        <v>50.46599999999999</v>
+        <v>50.45579999999998</v>
       </c>
       <c r="J13" t="n">
-        <v>58.877</v>
+        <v>58.86509999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>50.46599999999999</v>
+        <v>50.45579999999998</v>
       </c>
       <c r="L13" t="n">
-        <v>50.46599999999999</v>
+        <v>50.45579999999998</v>
       </c>
       <c r="M13" t="n">
-        <v>67.288</v>
+        <v>67.27439999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>50.46599999999999</v>
+        <v>50.45579999999998</v>
       </c>
       <c r="O13" t="n">
-        <v>33.644</v>
+        <v>33.63719999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>33.644</v>
+        <v>33.63719999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.644</v>
+        <v>33.63719999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>25.23299999999999</v>
+        <v>25.22789999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>67.288</v>
+        <v>67.27439999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>378.67</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1803.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>162.333</v>
-      </c>
-      <c r="E14" t="n">
-        <v>144.296</v>
-      </c>
-      <c r="F14" t="n">
-        <v>144.296</v>
-      </c>
-      <c r="G14" t="n">
-        <v>126.259</v>
-      </c>
-      <c r="H14" t="n">
-        <v>108.222</v>
-      </c>
-      <c r="I14" t="n">
-        <v>108.222</v>
-      </c>
-      <c r="J14" t="n">
-        <v>126.259</v>
-      </c>
-      <c r="K14" t="n">
-        <v>108.222</v>
-      </c>
-      <c r="L14" t="n">
-        <v>108.222</v>
-      </c>
-      <c r="M14" t="n">
-        <v>144.296</v>
-      </c>
-      <c r="N14" t="n">
-        <v>108.222</v>
-      </c>
-      <c r="O14" t="n">
-        <v>72.148</v>
-      </c>
-      <c r="P14" t="n">
-        <v>72.148</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>72.148</v>
-      </c>
-      <c r="R14" t="n">
-        <v>54.11099999999999</v>
-      </c>
-      <c r="S14" t="n">
-        <v>144.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>182.29</v>
+        <v>378.59</v>
       </c>
       <c r="C15" t="n">
-        <v>853.3599999999998</v>
+        <v>1803.38</v>
       </c>
       <c r="D15" t="n">
-        <v>76.80239999999999</v>
+        <v>162.3042</v>
       </c>
       <c r="E15" t="n">
-        <v>68.26879999999998</v>
+        <v>144.2704</v>
       </c>
       <c r="F15" t="n">
-        <v>68.26879999999998</v>
+        <v>144.2704</v>
       </c>
       <c r="G15" t="n">
-        <v>59.73519999999999</v>
+        <v>126.2366</v>
       </c>
       <c r="H15" t="n">
-        <v>51.20159999999998</v>
+        <v>108.2028</v>
       </c>
       <c r="I15" t="n">
-        <v>51.20159999999998</v>
+        <v>108.2028</v>
       </c>
       <c r="J15" t="n">
-        <v>59.73519999999999</v>
+        <v>126.2366</v>
       </c>
       <c r="K15" t="n">
-        <v>51.20159999999998</v>
+        <v>108.2028</v>
       </c>
       <c r="L15" t="n">
-        <v>51.20159999999998</v>
+        <v>108.2028</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26879999999998</v>
+        <v>144.2704</v>
       </c>
       <c r="N15" t="n">
-        <v>51.20159999999998</v>
+        <v>108.2028</v>
       </c>
       <c r="O15" t="n">
-        <v>34.13439999999999</v>
+        <v>72.1352</v>
       </c>
       <c r="P15" t="n">
-        <v>34.13439999999999</v>
+        <v>72.1352</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.13439999999999</v>
+        <v>72.1352</v>
       </c>
       <c r="R15" t="n">
-        <v>25.60079999999999</v>
+        <v>54.10139999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>68.26879999999998</v>
+        <v>144.2704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>182.18</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>852.8699999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>76.75829999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.22959999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.22959999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.7009</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>51.17219999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>51.17219999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.7009</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>51.17219999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>51.17219999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>68.22959999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>51.17219999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>34.1148</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>34.1148</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>34.1148</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.58609999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>68.22959999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>749.55</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>3372.959999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>330.6823529411764</v>
-      </c>
-      <c r="E18" t="n">
-        <v>297.6141176470588</v>
-      </c>
-      <c r="F18" t="n">
-        <v>297.6141176470588</v>
-      </c>
-      <c r="G18" t="n">
-        <v>264.5458823529411</v>
-      </c>
-      <c r="H18" t="n">
-        <v>231.4776470588235</v>
-      </c>
-      <c r="I18" t="n">
-        <v>231.4776470588235</v>
-      </c>
-      <c r="J18" t="n">
-        <v>231.4776470588235</v>
-      </c>
-      <c r="K18" t="n">
-        <v>198.4094117647058</v>
-      </c>
-      <c r="L18" t="n">
-        <v>198.4094117647058</v>
-      </c>
-      <c r="M18" t="n">
-        <v>297.6141176470588</v>
-      </c>
-      <c r="N18" t="n">
-        <v>165.3411764705882</v>
-      </c>
-      <c r="O18" t="n">
-        <v>132.2729411764706</v>
-      </c>
-      <c r="P18" t="n">
-        <v>132.2729411764706</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>99.20470588235291</v>
-      </c>
-      <c r="R18" t="n">
-        <v>99.20470588235291</v>
-      </c>
-      <c r="S18" t="n">
-        <v>165.3411764705882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>1159.67</v>
+        <v>749.29</v>
       </c>
       <c r="C19" t="n">
-        <v>5218.52</v>
+        <v>3371.79</v>
       </c>
       <c r="D19" t="n">
-        <v>521.852</v>
+        <v>330.5676470588235</v>
       </c>
       <c r="E19" t="n">
-        <v>469.6668</v>
+        <v>297.5108823529411</v>
       </c>
       <c r="F19" t="n">
-        <v>469.6668</v>
+        <v>297.5108823529411</v>
       </c>
       <c r="G19" t="n">
-        <v>417.4816</v>
+        <v>264.4541176470588</v>
       </c>
       <c r="H19" t="n">
-        <v>365.2964</v>
+        <v>231.3973529411765</v>
       </c>
       <c r="I19" t="n">
-        <v>365.2964</v>
+        <v>231.3973529411765</v>
       </c>
       <c r="J19" t="n">
-        <v>365.2964</v>
+        <v>231.3973529411765</v>
       </c>
       <c r="K19" t="n">
-        <v>365.2964</v>
+        <v>198.3405882352941</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1111999999999</v>
+        <v>198.3405882352941</v>
       </c>
       <c r="M19" t="n">
-        <v>521.852</v>
+        <v>297.5108823529411</v>
       </c>
       <c r="N19" t="n">
-        <v>208.7408</v>
+        <v>165.2838235294117</v>
       </c>
       <c r="O19" t="n">
-        <v>208.7408</v>
+        <v>132.2270588235294</v>
       </c>
       <c r="P19" t="n">
-        <v>156.5556</v>
+        <v>132.2270588235294</v>
       </c>
       <c r="Q19" t="n">
-        <v>156.5556</v>
+        <v>99.17029411764703</v>
       </c>
       <c r="R19" t="n">
-        <v>104.3704</v>
+        <v>99.17029411764703</v>
       </c>
       <c r="S19" t="n">
-        <v>208.7408</v>
+        <v>165.2838235294117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>2063.8</v>
+        <v>1159.67</v>
       </c>
       <c r="C20" t="n">
-        <v>9287.089999999998</v>
+        <v>5218.52</v>
       </c>
       <c r="D20" t="n">
-        <v>928.7089999999998</v>
+        <v>521.852</v>
       </c>
       <c r="E20" t="n">
-        <v>835.8380999999998</v>
+        <v>469.6668</v>
       </c>
       <c r="F20" t="n">
-        <v>835.8380999999998</v>
+        <v>469.6668</v>
       </c>
       <c r="G20" t="n">
-        <v>742.9671999999999</v>
+        <v>417.4816</v>
       </c>
       <c r="H20" t="n">
-        <v>650.0962999999999</v>
+        <v>365.2964</v>
       </c>
       <c r="I20" t="n">
-        <v>650.0962999999999</v>
+        <v>365.2964</v>
       </c>
       <c r="J20" t="n">
-        <v>650.0962999999999</v>
+        <v>365.2964</v>
       </c>
       <c r="K20" t="n">
-        <v>650.0962999999999</v>
+        <v>365.2964</v>
       </c>
       <c r="L20" t="n">
-        <v>557.2253999999998</v>
+        <v>313.1111999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>928.7089999999998</v>
+        <v>521.852</v>
       </c>
       <c r="N20" t="n">
-        <v>371.4836</v>
+        <v>208.7408</v>
       </c>
       <c r="O20" t="n">
-        <v>371.4836</v>
+        <v>208.7408</v>
       </c>
       <c r="P20" t="n">
-        <v>278.6126999999999</v>
+        <v>156.5556</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.6126999999999</v>
+        <v>156.5556</v>
       </c>
       <c r="R20" t="n">
-        <v>185.7418</v>
+        <v>104.3704</v>
       </c>
       <c r="S20" t="n">
-        <v>371.4836</v>
+        <v>208.7408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2063.47</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>9285.629999999997</v>
+      </c>
+      <c r="D21" t="n">
+        <v>928.5629999999998</v>
+      </c>
+      <c r="E21" t="n">
+        <v>835.7066999999997</v>
+      </c>
+      <c r="F21" t="n">
+        <v>835.7066999999997</v>
+      </c>
+      <c r="G21" t="n">
+        <v>742.8503999999998</v>
+      </c>
+      <c r="H21" t="n">
+        <v>649.9940999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>649.9940999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>649.9940999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>649.9940999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>557.1377999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>928.5629999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>371.4251999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>371.4251999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>278.5688999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>278.5688999999999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>185.7126</v>
+      </c>
+      <c r="S21" t="n">
+        <v>371.4251999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>99.64999999999998</v>
-      </c>
-      <c r="E24" t="n">
-        <v>89.68499999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>89.68499999999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>79.71999999999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>69.755</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69.755</v>
-      </c>
-      <c r="J24" t="n">
-        <v>69.755</v>
-      </c>
-      <c r="K24" t="n">
-        <v>59.78999999999998</v>
-      </c>
-      <c r="L24" t="n">
-        <v>59.78999999999998</v>
-      </c>
-      <c r="M24" t="n">
-        <v>99.64999999999998</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="O24" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="P24" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>29.89499999999999</v>
-      </c>
-      <c r="R24" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="S24" t="n">
-        <v>39.85999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>772.46</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>3237.75</v>
+        <v>996.5</v>
       </c>
       <c r="D25" t="n">
-        <v>323.7749999999999</v>
+        <v>99.64999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>291.3974999999999</v>
+        <v>89.68499999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>291.3974999999999</v>
+        <v>89.68499999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>259.02</v>
+        <v>79.71999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>226.6425</v>
+        <v>69.755</v>
       </c>
       <c r="I25" t="n">
-        <v>226.6425</v>
+        <v>69.755</v>
       </c>
       <c r="J25" t="n">
-        <v>226.6425</v>
+        <v>69.755</v>
       </c>
       <c r="K25" t="n">
-        <v>194.265</v>
+        <v>59.78999999999998</v>
       </c>
       <c r="L25" t="n">
-        <v>194.265</v>
+        <v>59.78999999999998</v>
       </c>
       <c r="M25" t="n">
-        <v>323.7749999999999</v>
+        <v>99.64999999999998</v>
       </c>
       <c r="N25" t="n">
-        <v>129.51</v>
+        <v>39.85999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>129.51</v>
+        <v>39.85999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>129.51</v>
+        <v>39.85999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.13249999999998</v>
+        <v>29.89499999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>64.755</v>
+        <v>19.93</v>
       </c>
       <c r="S25" t="n">
-        <v>129.51</v>
+        <v>39.85999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>884.54</v>
+        <v>772.46</v>
       </c>
       <c r="C26" t="n">
-        <v>3699.709999999999</v>
+        <v>3237.75</v>
       </c>
       <c r="D26" t="n">
-        <v>369.9709999999999</v>
+        <v>323.7749999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>332.9739</v>
+        <v>291.3974999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>332.9739</v>
+        <v>291.3974999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>295.9768</v>
+        <v>259.02</v>
       </c>
       <c r="H26" t="n">
-        <v>258.9797</v>
+        <v>226.6425</v>
       </c>
       <c r="I26" t="n">
-        <v>258.9797</v>
+        <v>226.6425</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9797</v>
+        <v>226.6425</v>
       </c>
       <c r="K26" t="n">
-        <v>221.9825999999999</v>
+        <v>194.265</v>
       </c>
       <c r="L26" t="n">
-        <v>221.9825999999999</v>
+        <v>194.265</v>
       </c>
       <c r="M26" t="n">
-        <v>369.9709999999999</v>
+        <v>323.7749999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>147.9884</v>
+        <v>129.51</v>
       </c>
       <c r="O26" t="n">
-        <v>147.9884</v>
+        <v>129.51</v>
       </c>
       <c r="P26" t="n">
-        <v>147.9884</v>
+        <v>129.51</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.9913</v>
+        <v>97.13249999999998</v>
       </c>
       <c r="R26" t="n">
-        <v>73.99419999999999</v>
+        <v>64.755</v>
       </c>
       <c r="S26" t="n">
-        <v>147.9884</v>
+        <v>129.51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>352.32</v>
+        <v>884.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1465.64</v>
+        <v>3699.709999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>146.564</v>
+        <v>369.9709999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>131.9076</v>
+        <v>332.9739</v>
       </c>
       <c r="F27" t="n">
-        <v>131.9076</v>
+        <v>332.9739</v>
       </c>
       <c r="G27" t="n">
-        <v>117.2512</v>
+        <v>295.9768</v>
       </c>
       <c r="H27" t="n">
-        <v>102.5948</v>
+        <v>258.9797</v>
       </c>
       <c r="I27" t="n">
-        <v>102.5948</v>
+        <v>258.9797</v>
       </c>
       <c r="J27" t="n">
-        <v>102.5948</v>
+        <v>258.9797</v>
       </c>
       <c r="K27" t="n">
-        <v>87.93839999999999</v>
+        <v>221.9825999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>87.93839999999999</v>
+        <v>221.9825999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>146.564</v>
+        <v>369.9709999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>58.6256</v>
+        <v>147.9884</v>
       </c>
       <c r="O27" t="n">
-        <v>58.6256</v>
+        <v>147.9884</v>
       </c>
       <c r="P27" t="n">
-        <v>58.6256</v>
+        <v>147.9884</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.96919999999999</v>
+        <v>110.9913</v>
       </c>
       <c r="R27" t="n">
-        <v>29.3128</v>
+        <v>73.99419999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>58.6256</v>
+        <v>147.9884</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>393.87</v>
+        <v>352.32</v>
       </c>
       <c r="C28" t="n">
-        <v>1695.98</v>
+        <v>1465.64</v>
       </c>
       <c r="D28" t="n">
-        <v>169.598</v>
+        <v>146.564</v>
       </c>
       <c r="E28" t="n">
-        <v>152.6382</v>
+        <v>131.9076</v>
       </c>
       <c r="F28" t="n">
-        <v>152.6382</v>
+        <v>131.9076</v>
       </c>
       <c r="G28" t="n">
-        <v>135.6784</v>
+        <v>117.2512</v>
       </c>
       <c r="H28" t="n">
-        <v>118.7186</v>
+        <v>102.5948</v>
       </c>
       <c r="I28" t="n">
-        <v>118.7186</v>
+        <v>102.5948</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7186</v>
+        <v>102.5948</v>
       </c>
       <c r="K28" t="n">
-        <v>101.7588</v>
+        <v>87.93839999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>101.7588</v>
+        <v>87.93839999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>169.598</v>
+        <v>146.564</v>
       </c>
       <c r="N28" t="n">
-        <v>67.83919999999999</v>
+        <v>58.6256</v>
       </c>
       <c r="O28" t="n">
-        <v>67.83919999999999</v>
+        <v>58.6256</v>
       </c>
       <c r="P28" t="n">
-        <v>67.83919999999999</v>
+        <v>58.6256</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.87939999999999</v>
+        <v>43.96919999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>33.9196</v>
+        <v>29.3128</v>
       </c>
       <c r="S28" t="n">
-        <v>67.83919999999999</v>
+        <v>58.6256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1738.19</v>
+        <v>393.72</v>
       </c>
       <c r="C29" t="n">
-        <v>7377.739999999998</v>
+        <v>1695.309999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>737.7739999999998</v>
+        <v>169.5309999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>663.9965999999998</v>
+        <v>152.5779</v>
       </c>
       <c r="F29" t="n">
-        <v>663.9965999999998</v>
+        <v>152.5779</v>
       </c>
       <c r="G29" t="n">
-        <v>590.2191999999999</v>
+        <v>135.6248</v>
       </c>
       <c r="H29" t="n">
-        <v>516.4417999999999</v>
+        <v>118.6717</v>
       </c>
       <c r="I29" t="n">
-        <v>516.4417999999999</v>
+        <v>118.6717</v>
       </c>
       <c r="J29" t="n">
-        <v>516.4417999999999</v>
+        <v>118.6717</v>
       </c>
       <c r="K29" t="n">
-        <v>442.6643999999999</v>
+        <v>101.7186</v>
       </c>
       <c r="L29" t="n">
-        <v>442.6643999999999</v>
+        <v>101.7186</v>
       </c>
       <c r="M29" t="n">
-        <v>737.7739999999998</v>
+        <v>169.5309999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>295.1095999999999</v>
+        <v>67.81239999999998</v>
       </c>
       <c r="O29" t="n">
-        <v>295.1095999999999</v>
+        <v>67.81239999999998</v>
       </c>
       <c r="P29" t="n">
-        <v>295.1095999999999</v>
+        <v>67.81239999999998</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.3321999999999</v>
+        <v>50.85929999999998</v>
       </c>
       <c r="R29" t="n">
-        <v>147.5548</v>
+        <v>33.90619999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>295.1095999999999</v>
+        <v>67.81239999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>1403.06</v>
+        <v>1738.15</v>
       </c>
       <c r="C30" t="n">
-        <v>5994.459999999999</v>
+        <v>7377.559999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>599.4459999999999</v>
+        <v>737.7559999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>539.5013999999999</v>
+        <v>663.9803999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>539.5013999999999</v>
+        <v>663.9803999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>479.5568</v>
+        <v>590.2048</v>
       </c>
       <c r="H30" t="n">
-        <v>419.6122</v>
+        <v>516.4291999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>419.6122</v>
+        <v>516.4291999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>419.6122</v>
+        <v>516.4291999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>359.6675999999999</v>
+        <v>442.6535999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>359.6675999999999</v>
+        <v>442.6535999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>599.4459999999999</v>
+        <v>737.7559999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>239.7784</v>
+        <v>295.1024</v>
       </c>
       <c r="O30" t="n">
-        <v>239.7784</v>
+        <v>295.1024</v>
       </c>
       <c r="P30" t="n">
-        <v>239.7784</v>
+        <v>295.1024</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.8337999999999</v>
+        <v>221.3268</v>
       </c>
       <c r="R30" t="n">
-        <v>119.8892</v>
+        <v>147.5512</v>
       </c>
       <c r="S30" t="n">
-        <v>239.7784</v>
+        <v>295.1024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1844.57</v>
+        <v>1402.8</v>
       </c>
       <c r="C31" t="n">
-        <v>7845.969999999998</v>
+        <v>5993.299999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>784.5969999999999</v>
+        <v>599.3299999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>706.1372999999999</v>
+        <v>539.3969999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>706.1372999999999</v>
+        <v>539.3969999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>627.6775999999999</v>
+        <v>479.4639999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>549.2179</v>
+        <v>419.5309999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>549.2179</v>
+        <v>419.5309999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>549.2179</v>
+        <v>419.5309999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>470.7581999999999</v>
+        <v>359.5979999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>470.7581999999999</v>
+        <v>359.5979999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>784.5969999999999</v>
+        <v>599.3299999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>313.8387999999999</v>
+        <v>239.732</v>
       </c>
       <c r="O31" t="n">
-        <v>313.8387999999999</v>
+        <v>239.732</v>
       </c>
       <c r="P31" t="n">
-        <v>313.8387999999999</v>
+        <v>239.732</v>
       </c>
       <c r="Q31" t="n">
-        <v>235.3790999999999</v>
+        <v>179.7989999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>156.9194</v>
+        <v>119.866</v>
       </c>
       <c r="S31" t="n">
-        <v>313.8387999999999</v>
+        <v>239.732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>624.36</v>
+        <v>1844.43</v>
       </c>
       <c r="C32" t="n">
-        <v>2673.61</v>
+        <v>7845.349999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>267.3609999999999</v>
+        <v>784.5349999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>240.6249</v>
+        <v>706.0814999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>240.6249</v>
+        <v>706.0814999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>213.8888</v>
+        <v>627.6279999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>187.1527</v>
+        <v>549.1745</v>
       </c>
       <c r="I32" t="n">
-        <v>187.1527</v>
+        <v>549.1745</v>
       </c>
       <c r="J32" t="n">
-        <v>187.1527</v>
+        <v>549.1745</v>
       </c>
       <c r="K32" t="n">
-        <v>160.4166</v>
+        <v>470.7209999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>160.4166</v>
+        <v>470.7209999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>267.3609999999999</v>
+        <v>784.5349999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>106.9444</v>
+        <v>313.814</v>
       </c>
       <c r="O32" t="n">
-        <v>106.9444</v>
+        <v>313.814</v>
       </c>
       <c r="P32" t="n">
-        <v>106.9444</v>
+        <v>313.814</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.20829999999998</v>
+        <v>235.3604999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>53.47219999999999</v>
+        <v>156.907</v>
       </c>
       <c r="S32" t="n">
-        <v>106.9444</v>
+        <v>313.814</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1340.89</v>
+        <v>624.21</v>
       </c>
       <c r="C33" t="n">
-        <v>5688.519999999999</v>
+        <v>2672.94</v>
       </c>
       <c r="D33" t="n">
-        <v>568.8519999999999</v>
+        <v>267.2939999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>511.9667999999999</v>
+        <v>240.5646</v>
       </c>
       <c r="F33" t="n">
-        <v>511.9667999999999</v>
+        <v>240.5646</v>
       </c>
       <c r="G33" t="n">
-        <v>455.0816</v>
+        <v>213.8352</v>
       </c>
       <c r="H33" t="n">
-        <v>398.1964</v>
+        <v>187.1058</v>
       </c>
       <c r="I33" t="n">
-        <v>398.1964</v>
+        <v>187.1058</v>
       </c>
       <c r="J33" t="n">
-        <v>398.1964</v>
+        <v>187.1058</v>
       </c>
       <c r="K33" t="n">
-        <v>341.3111999999999</v>
+        <v>160.3764</v>
       </c>
       <c r="L33" t="n">
-        <v>341.3111999999999</v>
+        <v>160.3764</v>
       </c>
       <c r="M33" t="n">
-        <v>568.8519999999999</v>
+        <v>267.2939999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>227.5408</v>
+        <v>106.9176</v>
       </c>
       <c r="O33" t="n">
-        <v>227.5408</v>
+        <v>106.9176</v>
       </c>
       <c r="P33" t="n">
-        <v>227.5408</v>
+        <v>106.9176</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.6556</v>
+        <v>80.18819999999998</v>
       </c>
       <c r="R33" t="n">
-        <v>113.7704</v>
+        <v>53.45879999999999</v>
       </c>
       <c r="S33" t="n">
-        <v>227.5408</v>
+        <v>106.9176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>2089.68</v>
+        <v>1340.89</v>
       </c>
       <c r="C34" t="n">
-        <v>9403.559999999998</v>
+        <v>5688.519999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>940.3559999999998</v>
+        <v>568.8519999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>846.3203999999998</v>
+        <v>511.9667999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>846.3203999999998</v>
+        <v>511.9667999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>752.2847999999998</v>
+        <v>455.0816</v>
       </c>
       <c r="H34" t="n">
-        <v>658.2491999999999</v>
+        <v>398.1964</v>
       </c>
       <c r="I34" t="n">
-        <v>658.2491999999999</v>
+        <v>398.1964</v>
       </c>
       <c r="J34" t="n">
-        <v>658.2491999999999</v>
+        <v>398.1964</v>
       </c>
       <c r="K34" t="n">
-        <v>658.2491999999999</v>
+        <v>341.3111999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>564.2135999999998</v>
+        <v>341.3111999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>940.3559999999998</v>
+        <v>568.8519999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>376.1423999999999</v>
+        <v>227.5408</v>
       </c>
       <c r="O34" t="n">
-        <v>376.1423999999999</v>
+        <v>227.5408</v>
       </c>
       <c r="P34" t="n">
-        <v>282.1067999999999</v>
+        <v>227.5408</v>
       </c>
       <c r="Q34" t="n">
-        <v>282.1067999999999</v>
+        <v>170.6556</v>
       </c>
       <c r="R34" t="n">
-        <v>188.0711999999999</v>
+        <v>113.7704</v>
       </c>
       <c r="S34" t="n">
-        <v>376.1423999999999</v>
+        <v>227.5408</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>2089.52</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.89</v>
+        <v>9402.859999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>186.689</v>
+        <v>940.2859999999998</v>
       </c>
       <c r="E35" t="n">
-        <v>168.0201</v>
+        <v>846.2573999999998</v>
       </c>
       <c r="F35" t="n">
-        <v>168.0201</v>
+        <v>846.2573999999998</v>
       </c>
       <c r="G35" t="n">
-        <v>149.3512</v>
+        <v>752.2288</v>
       </c>
       <c r="H35" t="n">
-        <v>130.6823</v>
+        <v>658.2002</v>
       </c>
       <c r="I35" t="n">
-        <v>130.6823</v>
+        <v>658.2002</v>
       </c>
       <c r="J35" t="n">
-        <v>130.6823</v>
+        <v>658.2002</v>
       </c>
       <c r="K35" t="n">
-        <v>130.6823</v>
+        <v>658.2002</v>
       </c>
       <c r="L35" t="n">
-        <v>112.0134</v>
+        <v>564.1715999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>186.689</v>
+        <v>940.2859999999998</v>
       </c>
       <c r="N35" t="n">
-        <v>74.67559999999999</v>
+        <v>376.1144</v>
       </c>
       <c r="O35" t="n">
-        <v>74.67559999999999</v>
+        <v>376.1144</v>
       </c>
       <c r="P35" t="n">
-        <v>56.00669999999999</v>
+        <v>282.0857999999999</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.00669999999999</v>
+        <v>282.0857999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33779999999999</v>
+        <v>188.0572</v>
       </c>
       <c r="S35" t="n">
-        <v>74.67559999999999</v>
+        <v>376.1144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>186.689</v>
+      </c>
+      <c r="E36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="F36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="G36" t="n">
+        <v>149.3512</v>
+      </c>
+      <c r="H36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="I36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="J36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="K36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="L36" t="n">
+        <v>112.0134</v>
+      </c>
+      <c r="M36" t="n">
+        <v>186.689</v>
+      </c>
+      <c r="N36" t="n">
+        <v>74.67559999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>74.67559999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>56.00669999999999</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>56.00669999999999</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37.33779999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>74.67559999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>14.74</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>66.34999999999998</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.504901960784312</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5.854411764705881</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5.854411764705881</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5.203921568627449</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4.553431372549019</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.553431372549019</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.553431372549019</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.902941176470587</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.902941176470587</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.854411764705881</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.252450980392156</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2.601960784313725</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.601960784313725</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.951470588235293</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.951470588235293</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.252450980392156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1043.34</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4695.039999999999</v>
-      </c>
-      <c r="D38" t="n">
-        <v>460.2980392156862</v>
-      </c>
-      <c r="E38" t="n">
-        <v>414.2682352941175</v>
-      </c>
-      <c r="F38" t="n">
-        <v>414.2682352941175</v>
-      </c>
-      <c r="G38" t="n">
-        <v>368.238431372549</v>
-      </c>
-      <c r="H38" t="n">
-        <v>322.2086274509804</v>
-      </c>
-      <c r="I38" t="n">
-        <v>322.2086274509804</v>
-      </c>
-      <c r="J38" t="n">
-        <v>322.2086274509804</v>
-      </c>
-      <c r="K38" t="n">
-        <v>276.1788235294117</v>
-      </c>
-      <c r="L38" t="n">
-        <v>276.1788235294117</v>
-      </c>
-      <c r="M38" t="n">
-        <v>414.2682352941175</v>
-      </c>
-      <c r="N38" t="n">
-        <v>230.1490196078431</v>
-      </c>
-      <c r="O38" t="n">
-        <v>184.1192156862745</v>
-      </c>
-      <c r="P38" t="n">
-        <v>184.1192156862745</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>138.0894117647059</v>
-      </c>
-      <c r="R38" t="n">
-        <v>138.0894117647059</v>
-      </c>
-      <c r="S38" t="n">
-        <v>230.1490196078431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>874.73</v>
+        <v>1043.34</v>
       </c>
       <c r="C39" t="n">
-        <v>3936.29</v>
+        <v>4695.039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>385.9107843137254</v>
+        <v>460.2980392156862</v>
       </c>
       <c r="E39" t="n">
-        <v>347.3197058823529</v>
+        <v>414.2682352941175</v>
       </c>
       <c r="F39" t="n">
-        <v>347.3197058823529</v>
+        <v>414.2682352941175</v>
       </c>
       <c r="G39" t="n">
-        <v>308.7286274509804</v>
+        <v>368.238431372549</v>
       </c>
       <c r="H39" t="n">
-        <v>270.1375490196078</v>
+        <v>322.2086274509804</v>
       </c>
       <c r="I39" t="n">
-        <v>270.1375490196078</v>
+        <v>322.2086274509804</v>
       </c>
       <c r="J39" t="n">
-        <v>270.1375490196078</v>
+        <v>322.2086274509804</v>
       </c>
       <c r="K39" t="n">
-        <v>231.5464705882352</v>
+        <v>276.1788235294117</v>
       </c>
       <c r="L39" t="n">
-        <v>231.5464705882352</v>
+        <v>276.1788235294117</v>
       </c>
       <c r="M39" t="n">
-        <v>347.3197058823529</v>
+        <v>414.2682352941175</v>
       </c>
       <c r="N39" t="n">
-        <v>192.9553921568627</v>
+        <v>230.1490196078431</v>
       </c>
       <c r="O39" t="n">
-        <v>154.3643137254902</v>
+        <v>184.1192156862745</v>
       </c>
       <c r="P39" t="n">
-        <v>154.3643137254902</v>
+        <v>184.1192156862745</v>
       </c>
       <c r="Q39" t="n">
-        <v>115.7732352941176</v>
+        <v>138.0894117647059</v>
       </c>
       <c r="R39" t="n">
-        <v>115.7732352941176</v>
+        <v>138.0894117647059</v>
       </c>
       <c r="S39" t="n">
-        <v>192.9553921568627</v>
+        <v>230.1490196078431</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>112.62</v>
+        <v>874.63</v>
       </c>
       <c r="C40" t="n">
-        <v>530.5999999999999</v>
+        <v>3935.849999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>47.75399999999999</v>
+        <v>385.8676470588235</v>
       </c>
       <c r="E40" t="n">
-        <v>42.44799999999999</v>
+        <v>347.2808823529411</v>
       </c>
       <c r="F40" t="n">
-        <v>42.44799999999999</v>
+        <v>347.2808823529411</v>
       </c>
       <c r="G40" t="n">
-        <v>37.142</v>
+        <v>308.6941176470588</v>
       </c>
       <c r="H40" t="n">
-        <v>31.83599999999999</v>
+        <v>270.1073529411764</v>
       </c>
       <c r="I40" t="n">
-        <v>31.83599999999999</v>
+        <v>270.1073529411764</v>
       </c>
       <c r="J40" t="n">
-        <v>37.142</v>
+        <v>270.1073529411764</v>
       </c>
       <c r="K40" t="n">
-        <v>31.83599999999999</v>
+        <v>231.520588235294</v>
       </c>
       <c r="L40" t="n">
-        <v>31.83599999999999</v>
+        <v>231.520588235294</v>
       </c>
       <c r="M40" t="n">
-        <v>42.44799999999999</v>
+        <v>347.2808823529411</v>
       </c>
       <c r="N40" t="n">
-        <v>31.83599999999999</v>
+        <v>192.9338235294117</v>
       </c>
       <c r="O40" t="n">
-        <v>21.224</v>
+        <v>154.3470588235294</v>
       </c>
       <c r="P40" t="n">
-        <v>21.224</v>
+        <v>154.3470588235294</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.224</v>
+        <v>115.760294117647</v>
       </c>
       <c r="R40" t="n">
-        <v>15.918</v>
+        <v>115.760294117647</v>
       </c>
       <c r="S40" t="n">
-        <v>42.44799999999999</v>
+        <v>192.9338235294117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>176.53</v>
+        <v>112.57</v>
       </c>
       <c r="C41" t="n">
-        <v>825.5199999999998</v>
+        <v>530.3799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>74.29679999999999</v>
+        <v>47.73419999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>66.04159999999999</v>
+        <v>42.43039999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>66.04159999999999</v>
+        <v>42.43039999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>57.78639999999999</v>
+        <v>37.1266</v>
       </c>
       <c r="H41" t="n">
-        <v>49.53119999999998</v>
+        <v>31.82279999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>49.53119999999998</v>
+        <v>31.82279999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>57.78639999999999</v>
+        <v>37.1266</v>
       </c>
       <c r="K41" t="n">
-        <v>49.53119999999998</v>
+        <v>31.82279999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>49.53119999999998</v>
+        <v>31.82279999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>66.04159999999999</v>
+        <v>42.43039999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>49.53119999999998</v>
+        <v>31.82279999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>33.02079999999999</v>
+        <v>21.2152</v>
       </c>
       <c r="P41" t="n">
-        <v>33.02079999999999</v>
+        <v>21.2152</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.02079999999999</v>
+        <v>21.2152</v>
       </c>
       <c r="R41" t="n">
-        <v>24.76559999999999</v>
+        <v>15.9114</v>
       </c>
       <c r="S41" t="n">
-        <v>66.04159999999999</v>
+        <v>42.43039999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>2237.33</v>
+        <v>176.42</v>
       </c>
       <c r="C42" t="n">
-        <v>11250.1</v>
+        <v>825.0199999999998</v>
       </c>
       <c r="D42" t="n">
-        <v>1225.258415841584</v>
+        <v>74.25179999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>1225.258415841584</v>
+        <v>66.00159999999998</v>
       </c>
       <c r="F42" t="n">
-        <v>1113.871287128713</v>
+        <v>66.00159999999998</v>
       </c>
       <c r="G42" t="n">
-        <v>1002.484158415841</v>
+        <v>57.75139999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>891.0970297029702</v>
+        <v>49.50119999999998</v>
       </c>
       <c r="I42" t="n">
-        <v>779.709900990099</v>
+        <v>49.50119999999998</v>
       </c>
       <c r="J42" t="n">
-        <v>779.709900990099</v>
+        <v>57.75139999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>668.3227722772276</v>
+        <v>49.50119999999998</v>
       </c>
       <c r="L42" t="n">
-        <v>556.9356435643563</v>
+        <v>49.50119999999998</v>
       </c>
       <c r="M42" t="n">
-        <v>1225.258415841584</v>
+        <v>66.00159999999998</v>
       </c>
       <c r="N42" t="n">
-        <v>445.5485148514851</v>
+        <v>49.50119999999998</v>
       </c>
       <c r="O42" t="n">
-        <v>334.1613861386138</v>
+        <v>33.00079999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>334.1613861386138</v>
+        <v>33.00079999999999</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.7742574257425</v>
+        <v>33.00079999999999</v>
       </c>
       <c r="R42" t="n">
-        <v>222.7742574257425</v>
+        <v>24.75059999999999</v>
       </c>
       <c r="S42" t="n">
-        <v>222.7742574257425</v>
+        <v>66.00159999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>435.1</v>
+        <v>2237.14</v>
       </c>
       <c r="C43" t="n">
-        <v>2048.05</v>
+        <v>11249.25</v>
       </c>
       <c r="D43" t="n">
-        <v>184.3245</v>
+        <v>1225.165841584158</v>
       </c>
       <c r="E43" t="n">
-        <v>163.844</v>
+        <v>1225.165841584158</v>
       </c>
       <c r="F43" t="n">
-        <v>163.844</v>
+        <v>1113.787128712871</v>
       </c>
       <c r="G43" t="n">
-        <v>143.3635</v>
+        <v>1002.408415841584</v>
       </c>
       <c r="H43" t="n">
-        <v>122.883</v>
+        <v>891.0297029702969</v>
       </c>
       <c r="I43" t="n">
-        <v>122.883</v>
+        <v>779.6509900990098</v>
       </c>
       <c r="J43" t="n">
-        <v>143.3635</v>
+        <v>779.6509900990098</v>
       </c>
       <c r="K43" t="n">
-        <v>122.883</v>
+        <v>668.2722772277226</v>
       </c>
       <c r="L43" t="n">
-        <v>122.883</v>
+        <v>556.8935643564355</v>
       </c>
       <c r="M43" t="n">
-        <v>163.844</v>
+        <v>1225.165841584158</v>
       </c>
       <c r="N43" t="n">
-        <v>122.883</v>
+        <v>445.5148514851484</v>
       </c>
       <c r="O43" t="n">
-        <v>81.922</v>
+        <v>334.1361386138613</v>
       </c>
       <c r="P43" t="n">
-        <v>81.922</v>
+        <v>334.1361386138613</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.922</v>
+        <v>222.7574257425742</v>
       </c>
       <c r="R43" t="n">
-        <v>61.44149999999999</v>
+        <v>222.7574257425742</v>
       </c>
       <c r="S43" t="n">
-        <v>163.844</v>
+        <v>222.7574257425742</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>489.33</v>
+        <v>434.9</v>
       </c>
       <c r="C44" t="n">
-        <v>2310.449999999999</v>
+        <v>2047.13</v>
       </c>
       <c r="D44" t="n">
-        <v>207.9405</v>
+        <v>184.2417</v>
       </c>
       <c r="E44" t="n">
-        <v>184.836</v>
+        <v>163.7704</v>
       </c>
       <c r="F44" t="n">
-        <v>184.836</v>
+        <v>163.7704</v>
       </c>
       <c r="G44" t="n">
-        <v>161.7315</v>
+        <v>143.2991</v>
       </c>
       <c r="H44" t="n">
-        <v>138.627</v>
+        <v>122.8278</v>
       </c>
       <c r="I44" t="n">
-        <v>138.627</v>
+        <v>122.8278</v>
       </c>
       <c r="J44" t="n">
-        <v>161.7315</v>
+        <v>143.2991</v>
       </c>
       <c r="K44" t="n">
-        <v>138.627</v>
+        <v>122.8278</v>
       </c>
       <c r="L44" t="n">
-        <v>138.627</v>
+        <v>122.8278</v>
       </c>
       <c r="M44" t="n">
-        <v>184.836</v>
+        <v>163.7704</v>
       </c>
       <c r="N44" t="n">
-        <v>138.627</v>
+        <v>122.8278</v>
       </c>
       <c r="O44" t="n">
-        <v>92.41799999999998</v>
+        <v>81.8852</v>
       </c>
       <c r="P44" t="n">
-        <v>92.41799999999998</v>
+        <v>81.8852</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.41799999999998</v>
+        <v>81.8852</v>
       </c>
       <c r="R44" t="n">
-        <v>69.31349999999998</v>
+        <v>61.41389999999998</v>
       </c>
       <c r="S44" t="n">
-        <v>184.836</v>
+        <v>163.7704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1796.58</v>
+        <v>489.13</v>
       </c>
       <c r="C45" t="n">
-        <v>7620.659999999998</v>
+        <v>2309.58</v>
       </c>
       <c r="D45" t="n">
-        <v>762.0659999999998</v>
+        <v>207.8621999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>685.8593999999998</v>
+        <v>184.7664</v>
       </c>
       <c r="F45" t="n">
-        <v>685.8593999999998</v>
+        <v>184.7664</v>
       </c>
       <c r="G45" t="n">
-        <v>609.6527999999998</v>
+        <v>161.6706</v>
       </c>
       <c r="H45" t="n">
-        <v>533.4462</v>
+        <v>138.5748</v>
       </c>
       <c r="I45" t="n">
-        <v>533.4462</v>
+        <v>138.5748</v>
       </c>
       <c r="J45" t="n">
-        <v>533.4462</v>
+        <v>161.6706</v>
       </c>
       <c r="K45" t="n">
-        <v>457.2395999999999</v>
+        <v>138.5748</v>
       </c>
       <c r="L45" t="n">
-        <v>457.2395999999999</v>
+        <v>138.5748</v>
       </c>
       <c r="M45" t="n">
-        <v>762.0659999999998</v>
+        <v>184.7664</v>
       </c>
       <c r="N45" t="n">
-        <v>304.8263999999999</v>
+        <v>138.5748</v>
       </c>
       <c r="O45" t="n">
-        <v>304.8263999999999</v>
+        <v>92.38319999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>304.8263999999999</v>
+        <v>92.38319999999999</v>
       </c>
       <c r="Q45" t="n">
-        <v>228.6197999999999</v>
+        <v>92.38319999999999</v>
       </c>
       <c r="R45" t="n">
-        <v>152.4132</v>
+        <v>69.28739999999998</v>
       </c>
       <c r="S45" t="n">
-        <v>304.8263999999999</v>
+        <v>184.7664</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1095.57</v>
+        <v>1796.58</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.499999999999</v>
+        <v>7620.659999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9499999999999</v>
+        <v>762.0659999999998</v>
       </c>
       <c r="E46" t="n">
-        <v>411.2549999999999</v>
+        <v>685.8593999999998</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2549999999999</v>
+        <v>685.8593999999998</v>
       </c>
       <c r="G46" t="n">
-        <v>365.5599999999999</v>
+        <v>609.6527999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>319.865</v>
+        <v>533.4462</v>
       </c>
       <c r="I46" t="n">
-        <v>319.865</v>
+        <v>533.4462</v>
       </c>
       <c r="J46" t="n">
-        <v>319.865</v>
+        <v>533.4462</v>
       </c>
       <c r="K46" t="n">
-        <v>274.1699999999999</v>
+        <v>457.2395999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1699999999999</v>
+        <v>457.2395999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>456.9499999999999</v>
+        <v>762.0659999999998</v>
       </c>
       <c r="N46" t="n">
-        <v>182.78</v>
+        <v>304.8263999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>182.78</v>
+        <v>304.8263999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>182.78</v>
+        <v>304.8263999999999</v>
       </c>
       <c r="Q46" t="n">
-        <v>137.085</v>
+        <v>228.6197999999999</v>
       </c>
       <c r="R46" t="n">
-        <v>91.38999999999999</v>
+        <v>152.4132</v>
       </c>
       <c r="S46" t="n">
-        <v>182.78</v>
+        <v>304.8263999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1617.87</v>
+        <v>1095.57</v>
       </c>
       <c r="C47" t="n">
-        <v>7280.419999999999</v>
+        <v>4569.499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>728.0419999999998</v>
+        <v>456.9499999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>655.2377999999999</v>
+        <v>411.2549999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>655.2377999999999</v>
+        <v>411.2549999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>582.4336</v>
+        <v>365.5599999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>509.6294</v>
+        <v>319.865</v>
       </c>
       <c r="I47" t="n">
-        <v>509.6294</v>
+        <v>319.865</v>
       </c>
       <c r="J47" t="n">
-        <v>509.6294</v>
+        <v>319.865</v>
       </c>
       <c r="K47" t="n">
-        <v>509.6294</v>
+        <v>274.1699999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>436.8251999999999</v>
+        <v>274.1699999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>728.0419999999998</v>
+        <v>456.9499999999999</v>
       </c>
       <c r="N47" t="n">
-        <v>291.2168</v>
+        <v>182.78</v>
       </c>
       <c r="O47" t="n">
-        <v>291.2168</v>
+        <v>182.78</v>
       </c>
       <c r="P47" t="n">
-        <v>218.4125999999999</v>
+        <v>182.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>218.4125999999999</v>
+        <v>137.085</v>
       </c>
       <c r="R47" t="n">
-        <v>145.6084</v>
+        <v>91.38999999999999</v>
       </c>
       <c r="S47" t="n">
-        <v>291.2168</v>
+        <v>182.78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>8864.77</v>
+        <v>1617.79</v>
       </c>
       <c r="C48" t="n">
-        <v>45197.55999999998</v>
+        <v>7280.039999999998</v>
       </c>
       <c r="D48" t="n">
-        <v>4922.506534653464</v>
+        <v>728.0039999999998</v>
       </c>
       <c r="E48" t="n">
-        <v>4475.005940594058</v>
+        <v>655.2035999999998</v>
       </c>
       <c r="F48" t="n">
-        <v>4027.505346534652</v>
+        <v>655.2035999999998</v>
       </c>
       <c r="G48" t="n">
-        <v>3580.004752475247</v>
+        <v>582.4031999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3580.004752475247</v>
+        <v>509.6027999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>3580.004752475247</v>
+        <v>509.6027999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>3132.504158415841</v>
+        <v>509.6027999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>2685.003564356435</v>
+        <v>509.6027999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>2237.502970297029</v>
+        <v>436.8023999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>4922.506534653464</v>
+        <v>728.0039999999998</v>
       </c>
       <c r="N48" t="n">
-        <v>1790.002376237623</v>
+        <v>291.2015999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>1342.501782178217</v>
+        <v>291.2015999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>1342.501782178217</v>
+        <v>218.4011999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>1342.501782178217</v>
+        <v>218.4011999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>895.0011881188117</v>
+        <v>145.6008</v>
       </c>
       <c r="S48" t="n">
-        <v>1342.501782178217</v>
+        <v>291.2015999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>2293.45</v>
+        <v>8864.77</v>
       </c>
       <c r="C49" t="n">
-        <v>9471.899999999998</v>
+        <v>45197.55999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>1031.59306930693</v>
+        <v>4922.506534653464</v>
       </c>
       <c r="E49" t="n">
-        <v>1031.59306930693</v>
+        <v>4475.005940594058</v>
       </c>
       <c r="F49" t="n">
-        <v>937.8118811881186</v>
+        <v>4027.505346534652</v>
       </c>
       <c r="G49" t="n">
-        <v>750.249504950495</v>
+        <v>3580.004752475247</v>
       </c>
       <c r="H49" t="n">
-        <v>656.4683168316831</v>
+        <v>3580.004752475247</v>
       </c>
       <c r="I49" t="n">
-        <v>656.4683168316831</v>
+        <v>3580.004752475247</v>
       </c>
       <c r="J49" t="n">
-        <v>656.4683168316831</v>
+        <v>3132.504158415841</v>
       </c>
       <c r="K49" t="n">
-        <v>562.6871287128711</v>
+        <v>2685.003564356435</v>
       </c>
       <c r="L49" t="n">
-        <v>468.9059405940593</v>
+        <v>2237.502970297029</v>
       </c>
       <c r="M49" t="n">
-        <v>1031.59306930693</v>
+        <v>4922.506534653464</v>
       </c>
       <c r="N49" t="n">
-        <v>375.1247524752475</v>
+        <v>1790.002376237623</v>
       </c>
       <c r="O49" t="n">
-        <v>281.3435643564355</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="P49" t="n">
-        <v>281.3435643564355</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="Q49" t="n">
-        <v>281.3435643564355</v>
+        <v>1342.501782178217</v>
       </c>
       <c r="R49" t="n">
-        <v>187.5623762376237</v>
+        <v>895.0011881188117</v>
       </c>
       <c r="S49" t="n">
-        <v>281.3435643564355</v>
+        <v>1342.501782178217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1518.01</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>6221.069999999998</v>
-      </c>
-      <c r="D50" t="n">
-        <v>677.5422772277226</v>
-      </c>
-      <c r="E50" t="n">
-        <v>677.5422772277226</v>
-      </c>
-      <c r="F50" t="n">
-        <v>615.947524752475</v>
-      </c>
-      <c r="G50" t="n">
-        <v>492.7580198019801</v>
-      </c>
-      <c r="H50" t="n">
-        <v>431.1632673267326</v>
-      </c>
-      <c r="I50" t="n">
-        <v>431.1632673267326</v>
-      </c>
-      <c r="J50" t="n">
-        <v>431.1632673267326</v>
-      </c>
-      <c r="K50" t="n">
-        <v>369.568514851485</v>
-      </c>
-      <c r="L50" t="n">
-        <v>307.9737623762375</v>
-      </c>
-      <c r="M50" t="n">
-        <v>677.5422772277226</v>
-      </c>
-      <c r="N50" t="n">
-        <v>246.37900990099</v>
-      </c>
-      <c r="O50" t="n">
-        <v>184.7842574257425</v>
-      </c>
-      <c r="P50" t="n">
-        <v>184.7842574257425</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>184.7842574257425</v>
-      </c>
-      <c r="R50" t="n">
-        <v>123.189504950495</v>
-      </c>
-      <c r="S50" t="n">
-        <v>184.7842574257425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1278.3</v>
+        <v>2293.45</v>
       </c>
       <c r="C51" t="n">
-        <v>5303.559999999999</v>
+        <v>9471.899999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>577.6154455445544</v>
+        <v>1031.59306930693</v>
       </c>
       <c r="E51" t="n">
-        <v>577.6154455445544</v>
+        <v>1031.59306930693</v>
       </c>
       <c r="F51" t="n">
-        <v>525.1049504950494</v>
+        <v>937.8118811881186</v>
       </c>
       <c r="G51" t="n">
-        <v>420.0839603960396</v>
+        <v>750.249504950495</v>
       </c>
       <c r="H51" t="n">
-        <v>367.5734653465346</v>
+        <v>656.4683168316831</v>
       </c>
       <c r="I51" t="n">
-        <v>367.5734653465346</v>
+        <v>656.4683168316831</v>
       </c>
       <c r="J51" t="n">
-        <v>367.5734653465346</v>
+        <v>656.4683168316831</v>
       </c>
       <c r="K51" t="n">
-        <v>315.0629702970297</v>
+        <v>562.6871287128711</v>
       </c>
       <c r="L51" t="n">
-        <v>262.5524752475247</v>
+        <v>468.9059405940593</v>
       </c>
       <c r="M51" t="n">
-        <v>577.6154455445544</v>
+        <v>1031.59306930693</v>
       </c>
       <c r="N51" t="n">
-        <v>210.0419801980198</v>
+        <v>375.1247524752475</v>
       </c>
       <c r="O51" t="n">
-        <v>157.5314851485148</v>
+        <v>281.3435643564355</v>
       </c>
       <c r="P51" t="n">
-        <v>157.5314851485148</v>
+        <v>281.3435643564355</v>
       </c>
       <c r="Q51" t="n">
-        <v>157.5314851485148</v>
+        <v>281.3435643564355</v>
       </c>
       <c r="R51" t="n">
-        <v>105.0209900990099</v>
+        <v>187.5623762376237</v>
       </c>
       <c r="S51" t="n">
-        <v>157.5314851485148</v>
+        <v>281.3435643564355</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>1071.42</v>
+        <v>1518.01</v>
       </c>
       <c r="C52" t="n">
-        <v>4492.669999999999</v>
+        <v>6221.069999999998</v>
       </c>
       <c r="D52" t="n">
-        <v>489.3006930693068</v>
+        <v>677.5422772277226</v>
       </c>
       <c r="E52" t="n">
-        <v>489.3006930693068</v>
+        <v>677.5422772277226</v>
       </c>
       <c r="F52" t="n">
-        <v>444.818811881188</v>
+        <v>615.947524752475</v>
       </c>
       <c r="G52" t="n">
-        <v>355.8550495049504</v>
+        <v>492.7580198019801</v>
       </c>
       <c r="H52" t="n">
-        <v>311.3731683168317</v>
+        <v>431.1632673267326</v>
       </c>
       <c r="I52" t="n">
-        <v>311.3731683168317</v>
+        <v>431.1632673267326</v>
       </c>
       <c r="J52" t="n">
-        <v>311.3731683168317</v>
+        <v>431.1632673267326</v>
       </c>
       <c r="K52" t="n">
-        <v>266.8912871287128</v>
+        <v>369.568514851485</v>
       </c>
       <c r="L52" t="n">
-        <v>222.409405940594</v>
+        <v>307.9737623762375</v>
       </c>
       <c r="M52" t="n">
-        <v>489.3006930693068</v>
+        <v>677.5422772277226</v>
       </c>
       <c r="N52" t="n">
-        <v>177.9275247524752</v>
+        <v>246.37900990099</v>
       </c>
       <c r="O52" t="n">
-        <v>133.4456435643564</v>
+        <v>184.7842574257425</v>
       </c>
       <c r="P52" t="n">
-        <v>133.4456435643564</v>
+        <v>184.7842574257425</v>
       </c>
       <c r="Q52" t="n">
-        <v>133.4456435643564</v>
+        <v>184.7842574257425</v>
       </c>
       <c r="R52" t="n">
-        <v>88.96376237623761</v>
+        <v>123.189504950495</v>
       </c>
       <c r="S52" t="n">
-        <v>133.4456435643564</v>
+        <v>184.7842574257425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>1034.33</v>
+        <v>1278.3</v>
       </c>
       <c r="C53" t="n">
-        <v>4352.059999999999</v>
+        <v>5303.559999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>439.6020202020201</v>
+        <v>577.6154455445544</v>
       </c>
       <c r="E53" t="n">
-        <v>439.6020202020201</v>
+        <v>577.6154455445544</v>
       </c>
       <c r="F53" t="n">
-        <v>395.6418181818181</v>
+        <v>525.1049504950494</v>
       </c>
       <c r="G53" t="n">
-        <v>351.6816161616161</v>
+        <v>420.0839603960396</v>
       </c>
       <c r="H53" t="n">
-        <v>307.7214141414141</v>
+        <v>367.5734653465346</v>
       </c>
       <c r="I53" t="n">
-        <v>307.7214141414141</v>
+        <v>367.5734653465346</v>
       </c>
       <c r="J53" t="n">
-        <v>307.7214141414141</v>
+        <v>367.5734653465346</v>
       </c>
       <c r="K53" t="n">
-        <v>263.7612121212121</v>
+        <v>315.0629702970297</v>
       </c>
       <c r="L53" t="n">
-        <v>219.8010101010101</v>
+        <v>262.5524752475247</v>
       </c>
       <c r="M53" t="n">
-        <v>439.6020202020201</v>
+        <v>577.6154455445544</v>
       </c>
       <c r="N53" t="n">
-        <v>175.840808080808</v>
+        <v>210.0419801980198</v>
       </c>
       <c r="O53" t="n">
-        <v>131.880606060606</v>
+        <v>157.5314851485148</v>
       </c>
       <c r="P53" t="n">
-        <v>175.840808080808</v>
+        <v>157.5314851485148</v>
       </c>
       <c r="Q53" t="n">
-        <v>131.880606060606</v>
+        <v>157.5314851485148</v>
       </c>
       <c r="R53" t="n">
-        <v>87.92040404040402</v>
+        <v>105.0209900990099</v>
       </c>
       <c r="S53" t="n">
-        <v>175.840808080808</v>
+        <v>157.5314851485148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>792.95</v>
+        <v>1071.35</v>
       </c>
       <c r="C54" t="n">
-        <v>3335.089999999999</v>
+        <v>4492.349999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>336.8777777777777</v>
+        <v>489.2658415841584</v>
       </c>
       <c r="E54" t="n">
-        <v>336.8777777777777</v>
+        <v>489.2658415841584</v>
       </c>
       <c r="F54" t="n">
-        <v>303.1899999999999</v>
+        <v>444.7871287128712</v>
       </c>
       <c r="G54" t="n">
-        <v>269.5022222222221</v>
+        <v>355.829702970297</v>
       </c>
       <c r="H54" t="n">
-        <v>235.8144444444444</v>
+        <v>311.3509900990099</v>
       </c>
       <c r="I54" t="n">
-        <v>235.8144444444444</v>
+        <v>311.3509900990099</v>
       </c>
       <c r="J54" t="n">
-        <v>235.8144444444444</v>
+        <v>311.3509900990099</v>
       </c>
       <c r="K54" t="n">
-        <v>202.1266666666666</v>
+        <v>266.8722772277227</v>
       </c>
       <c r="L54" t="n">
-        <v>168.4388888888888</v>
+        <v>222.3935643564356</v>
       </c>
       <c r="M54" t="n">
-        <v>336.8777777777777</v>
+        <v>489.2658415841584</v>
       </c>
       <c r="N54" t="n">
-        <v>134.7511111111111</v>
+        <v>177.9148514851485</v>
       </c>
       <c r="O54" t="n">
-        <v>101.0633333333333</v>
+        <v>133.4361386138613</v>
       </c>
       <c r="P54" t="n">
-        <v>134.7511111111111</v>
+        <v>133.4361386138613</v>
       </c>
       <c r="Q54" t="n">
-        <v>101.0633333333333</v>
+        <v>133.4361386138613</v>
       </c>
       <c r="R54" t="n">
-        <v>67.37555555555554</v>
+        <v>88.95742574257424</v>
       </c>
       <c r="S54" t="n">
-        <v>134.7511111111111</v>
+        <v>133.4361386138613</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>2201.99</v>
+        <v>1034.23</v>
       </c>
       <c r="C55" t="n">
-        <v>9157.879999999997</v>
+        <v>4351.619999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>934.4775510204079</v>
+        <v>439.5575757575756</v>
       </c>
       <c r="E55" t="n">
-        <v>934.4775510204079</v>
+        <v>439.5575757575756</v>
       </c>
       <c r="F55" t="n">
-        <v>841.029795918367</v>
+        <v>395.601818181818</v>
       </c>
       <c r="G55" t="n">
-        <v>747.5820408163263</v>
+        <v>351.6460606060605</v>
       </c>
       <c r="H55" t="n">
-        <v>654.1342857142855</v>
+        <v>307.690303030303</v>
       </c>
       <c r="I55" t="n">
-        <v>654.1342857142855</v>
+        <v>307.690303030303</v>
       </c>
       <c r="J55" t="n">
-        <v>654.1342857142855</v>
+        <v>307.690303030303</v>
       </c>
       <c r="K55" t="n">
-        <v>560.6865306122446</v>
+        <v>263.7345454545454</v>
       </c>
       <c r="L55" t="n">
-        <v>467.2387755102039</v>
+        <v>219.7787878787878</v>
       </c>
       <c r="M55" t="n">
-        <v>934.4775510204079</v>
+        <v>439.5575757575756</v>
       </c>
       <c r="N55" t="n">
-        <v>373.7910204081631</v>
+        <v>175.8230303030303</v>
       </c>
       <c r="O55" t="n">
-        <v>373.7910204081631</v>
+        <v>131.8672727272727</v>
       </c>
       <c r="P55" t="n">
-        <v>280.3432653061223</v>
+        <v>175.8230303030303</v>
       </c>
       <c r="Q55" t="n">
-        <v>280.3432653061223</v>
+        <v>131.8672727272727</v>
       </c>
       <c r="R55" t="n">
-        <v>186.8955102040816</v>
+        <v>87.91151515151513</v>
       </c>
       <c r="S55" t="n">
-        <v>280.3432653061223</v>
+        <v>175.8230303030303</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1857.58</v>
+        <v>792.88</v>
       </c>
       <c r="C56" t="n">
-        <v>7546.939999999998</v>
+        <v>3334.789999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>770.0959183673467</v>
+        <v>336.8474747474746</v>
       </c>
       <c r="E56" t="n">
-        <v>770.0959183673467</v>
+        <v>336.8474747474746</v>
       </c>
       <c r="F56" t="n">
-        <v>693.0863265306119</v>
+        <v>303.1627272727271</v>
       </c>
       <c r="G56" t="n">
-        <v>616.0767346938774</v>
+        <v>269.4779797979797</v>
       </c>
       <c r="H56" t="n">
-        <v>539.0671428571427</v>
+        <v>235.7932323232323</v>
       </c>
       <c r="I56" t="n">
-        <v>539.0671428571427</v>
+        <v>235.7932323232323</v>
       </c>
       <c r="J56" t="n">
-        <v>539.0671428571427</v>
+        <v>235.7932323232323</v>
       </c>
       <c r="K56" t="n">
-        <v>462.057551020408</v>
+        <v>202.1084848484848</v>
       </c>
       <c r="L56" t="n">
-        <v>385.0479591836734</v>
+        <v>168.4237373737373</v>
       </c>
       <c r="M56" t="n">
-        <v>770.0959183673467</v>
+        <v>336.8474747474746</v>
       </c>
       <c r="N56" t="n">
-        <v>308.0383673469387</v>
+        <v>134.7389898989899</v>
       </c>
       <c r="O56" t="n">
-        <v>308.0383673469387</v>
+        <v>101.0542424242424</v>
       </c>
       <c r="P56" t="n">
-        <v>231.028775510204</v>
+        <v>134.7389898989899</v>
       </c>
       <c r="Q56" t="n">
-        <v>231.028775510204</v>
+        <v>101.0542424242424</v>
       </c>
       <c r="R56" t="n">
-        <v>154.0191836734693</v>
+        <v>67.36949494949494</v>
       </c>
       <c r="S56" t="n">
-        <v>231.028775510204</v>
+        <v>134.7389898989899</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>1764.61</v>
+        <v>2201.99</v>
       </c>
       <c r="C57" t="n">
-        <v>7625.799999999997</v>
+        <v>9157.879999999997</v>
       </c>
       <c r="D57" t="n">
-        <v>786.164948453608</v>
+        <v>934.4775510204079</v>
       </c>
       <c r="E57" t="n">
-        <v>786.164948453608</v>
+        <v>934.4775510204079</v>
       </c>
       <c r="F57" t="n">
-        <v>707.5484536082472</v>
+        <v>841.029795918367</v>
       </c>
       <c r="G57" t="n">
-        <v>628.9319587628864</v>
+        <v>747.5820408163263</v>
       </c>
       <c r="H57" t="n">
-        <v>550.3154639175257</v>
+        <v>654.1342857142855</v>
       </c>
       <c r="I57" t="n">
-        <v>550.3154639175257</v>
+        <v>654.1342857142855</v>
       </c>
       <c r="J57" t="n">
-        <v>550.3154639175257</v>
+        <v>654.1342857142855</v>
       </c>
       <c r="K57" t="n">
-        <v>471.6989690721648</v>
+        <v>560.6865306122446</v>
       </c>
       <c r="L57" t="n">
-        <v>393.082474226804</v>
+        <v>467.2387755102039</v>
       </c>
       <c r="M57" t="n">
-        <v>786.164948453608</v>
+        <v>934.4775510204079</v>
       </c>
       <c r="N57" t="n">
-        <v>314.4659793814432</v>
+        <v>373.7910204081631</v>
       </c>
       <c r="O57" t="n">
-        <v>235.8494845360824</v>
+        <v>373.7910204081631</v>
       </c>
       <c r="P57" t="n">
-        <v>235.8494845360824</v>
+        <v>280.3432653061223</v>
       </c>
       <c r="Q57" t="n">
-        <v>235.8494845360824</v>
+        <v>280.3432653061223</v>
       </c>
       <c r="R57" t="n">
-        <v>157.2329896907216</v>
+        <v>186.8955102040816</v>
       </c>
       <c r="S57" t="n">
-        <v>235.8494845360824</v>
+        <v>280.3432653061223</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1893.34</v>
+        <v>1857.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7945.009999999997</v>
+        <v>7546.939999999998</v>
       </c>
       <c r="D58" t="n">
-        <v>819.0731958762884</v>
+        <v>770.0959183673467</v>
       </c>
       <c r="E58" t="n">
-        <v>819.0731958762884</v>
+        <v>770.0959183673467</v>
       </c>
       <c r="F58" t="n">
-        <v>737.1658762886595</v>
+        <v>693.0863265306119</v>
       </c>
       <c r="G58" t="n">
-        <v>655.2585567010307</v>
+        <v>616.0767346938774</v>
       </c>
       <c r="H58" t="n">
-        <v>573.3512371134019</v>
+        <v>539.0671428571427</v>
       </c>
       <c r="I58" t="n">
-        <v>573.3512371134019</v>
+        <v>539.0671428571427</v>
       </c>
       <c r="J58" t="n">
-        <v>573.3512371134019</v>
+        <v>539.0671428571427</v>
       </c>
       <c r="K58" t="n">
-        <v>491.4439175257731</v>
+        <v>462.057551020408</v>
       </c>
       <c r="L58" t="n">
-        <v>409.5365979381442</v>
+        <v>385.0479591836734</v>
       </c>
       <c r="M58" t="n">
-        <v>819.0731958762884</v>
+        <v>770.0959183673467</v>
       </c>
       <c r="N58" t="n">
-        <v>327.6292783505153</v>
+        <v>308.0383673469387</v>
       </c>
       <c r="O58" t="n">
-        <v>245.7219587628865</v>
+        <v>308.0383673469387</v>
       </c>
       <c r="P58" t="n">
-        <v>245.7219587628865</v>
+        <v>231.028775510204</v>
       </c>
       <c r="Q58" t="n">
-        <v>245.7219587628865</v>
+        <v>231.028775510204</v>
       </c>
       <c r="R58" t="n">
-        <v>163.8146391752577</v>
+        <v>154.0191836734693</v>
       </c>
       <c r="S58" t="n">
-        <v>245.7219587628865</v>
+        <v>231.028775510204</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>2029.68</v>
+        <v>1763.79</v>
       </c>
       <c r="C59" t="n">
-        <v>9133.579999999998</v>
+        <v>7622.089999999997</v>
       </c>
       <c r="D59" t="n">
-        <v>931.9979591836732</v>
+        <v>785.7824742268039</v>
       </c>
       <c r="E59" t="n">
-        <v>931.9979591836732</v>
+        <v>785.7824742268039</v>
       </c>
       <c r="F59" t="n">
-        <v>838.7981632653058</v>
+        <v>707.2042268041234</v>
       </c>
       <c r="G59" t="n">
-        <v>745.5983673469386</v>
+        <v>628.6259793814431</v>
       </c>
       <c r="H59" t="n">
-        <v>652.3985714285712</v>
+        <v>550.0477319587627</v>
       </c>
       <c r="I59" t="n">
-        <v>652.3985714285712</v>
+        <v>550.0477319587627</v>
       </c>
       <c r="J59" t="n">
-        <v>652.3985714285712</v>
+        <v>550.0477319587627</v>
       </c>
       <c r="K59" t="n">
-        <v>559.1987755102039</v>
+        <v>471.4694845360823</v>
       </c>
       <c r="L59" t="n">
-        <v>465.9989795918366</v>
+        <v>392.8912371134019</v>
       </c>
       <c r="M59" t="n">
-        <v>931.9979591836732</v>
+        <v>785.7824742268039</v>
       </c>
       <c r="N59" t="n">
-        <v>372.7991836734693</v>
+        <v>314.3129896907216</v>
       </c>
       <c r="O59" t="n">
-        <v>372.7991836734693</v>
+        <v>235.7347422680412</v>
       </c>
       <c r="P59" t="n">
-        <v>279.5993877551019</v>
+        <v>235.7347422680412</v>
       </c>
       <c r="Q59" t="n">
-        <v>279.5993877551019</v>
+        <v>235.7347422680412</v>
       </c>
       <c r="R59" t="n">
-        <v>186.3995918367347</v>
+        <v>157.1564948453608</v>
       </c>
       <c r="S59" t="n">
-        <v>279.5993877551019</v>
+        <v>235.7347422680412</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1629.52</v>
+        <v>1893.34</v>
       </c>
       <c r="C60" t="n">
-        <v>7282.219999999998</v>
+        <v>7945.009999999997</v>
       </c>
       <c r="D60" t="n">
-        <v>743.0836734693876</v>
+        <v>819.0731958762884</v>
       </c>
       <c r="E60" t="n">
-        <v>743.0836734693876</v>
+        <v>819.0731958762884</v>
       </c>
       <c r="F60" t="n">
-        <v>668.7753061224487</v>
+        <v>737.1658762886595</v>
       </c>
       <c r="G60" t="n">
-        <v>594.4669387755101</v>
+        <v>655.2585567010307</v>
       </c>
       <c r="H60" t="n">
-        <v>520.1585714285713</v>
+        <v>573.3512371134019</v>
       </c>
       <c r="I60" t="n">
-        <v>520.1585714285713</v>
+        <v>573.3512371134019</v>
       </c>
       <c r="J60" t="n">
-        <v>520.1585714285713</v>
+        <v>573.3512371134019</v>
       </c>
       <c r="K60" t="n">
-        <v>445.8502040816325</v>
+        <v>491.4439175257731</v>
       </c>
       <c r="L60" t="n">
-        <v>371.5418367346938</v>
+        <v>409.5365979381442</v>
       </c>
       <c r="M60" t="n">
-        <v>743.0836734693876</v>
+        <v>819.0731958762884</v>
       </c>
       <c r="N60" t="n">
-        <v>297.2334693877551</v>
+        <v>327.6292783505153</v>
       </c>
       <c r="O60" t="n">
-        <v>297.2334693877551</v>
+        <v>245.7219587628865</v>
       </c>
       <c r="P60" t="n">
-        <v>222.9251020408163</v>
+        <v>245.7219587628865</v>
       </c>
       <c r="Q60" t="n">
-        <v>222.9251020408163</v>
+        <v>245.7219587628865</v>
       </c>
       <c r="R60" t="n">
-        <v>148.6167346938775</v>
+        <v>163.8146391752577</v>
       </c>
       <c r="S60" t="n">
-        <v>222.9251020408163</v>
+        <v>245.7219587628865</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1830.98</v>
+        <v>2029.68</v>
       </c>
       <c r="C61" t="n">
-        <v>7685.129999999997</v>
+        <v>9133.579999999998</v>
       </c>
       <c r="D61" t="n">
-        <v>776.2757575757573</v>
+        <v>931.9979591836732</v>
       </c>
       <c r="E61" t="n">
-        <v>776.2757575757573</v>
+        <v>931.9979591836732</v>
       </c>
       <c r="F61" t="n">
-        <v>698.6481818181816</v>
+        <v>838.7981632653058</v>
       </c>
       <c r="G61" t="n">
-        <v>621.0206060606059</v>
+        <v>745.5983673469386</v>
       </c>
       <c r="H61" t="n">
-        <v>543.3930303030302</v>
+        <v>652.3985714285712</v>
       </c>
       <c r="I61" t="n">
-        <v>543.3930303030302</v>
+        <v>652.3985714285712</v>
       </c>
       <c r="J61" t="n">
-        <v>543.3930303030302</v>
+        <v>652.3985714285712</v>
       </c>
       <c r="K61" t="n">
-        <v>465.7654545454544</v>
+        <v>559.1987755102039</v>
       </c>
       <c r="L61" t="n">
-        <v>388.1378787878787</v>
+        <v>465.9989795918366</v>
       </c>
       <c r="M61" t="n">
-        <v>776.2757575757573</v>
+        <v>931.9979591836732</v>
       </c>
       <c r="N61" t="n">
-        <v>310.510303030303</v>
+        <v>372.7991836734693</v>
       </c>
       <c r="O61" t="n">
-        <v>232.8827272727272</v>
+        <v>372.7991836734693</v>
       </c>
       <c r="P61" t="n">
-        <v>310.510303030303</v>
+        <v>279.5993877551019</v>
       </c>
       <c r="Q61" t="n">
-        <v>232.8827272727272</v>
+        <v>279.5993877551019</v>
       </c>
       <c r="R61" t="n">
-        <v>155.2551515151515</v>
+        <v>186.3995918367347</v>
       </c>
       <c r="S61" t="n">
-        <v>310.510303030303</v>
+        <v>279.5993877551019</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1629.52</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>7282.219999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>743.0836734693876</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>743.0836734693876</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>668.7753061224487</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>594.4669387755101</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>520.1585714285713</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>520.1585714285713</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>520.1585714285713</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>445.8502040816325</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>371.5418367346938</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>743.0836734693876</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>297.2334693877551</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>297.2334693877551</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>222.9251020408163</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>222.9251020408163</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>148.6167346938775</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>222.9251020408163</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1830.9</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7684.769999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>776.2393939393937</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>776.2393939393937</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>698.6154545454543</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>620.991515151515</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>543.3675757575757</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>543.3675757575757</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>543.3675757575757</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>465.7436363636363</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>388.1196969696969</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>776.2393939393937</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>310.4957575757575</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>232.8718181818181</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>310.4957575757575</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>232.8718181818181</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>155.2478787878788</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>310.4957575757575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2480.57</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>11162.58</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1116.258</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1004.6322</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1004.6322</v>
-      </c>
-      <c r="G64" t="n">
-        <v>893.0063999999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>781.3806</v>
-      </c>
-      <c r="I64" t="n">
-        <v>781.3806</v>
-      </c>
-      <c r="J64" t="n">
-        <v>781.3806</v>
-      </c>
-      <c r="K64" t="n">
-        <v>781.3806</v>
-      </c>
-      <c r="L64" t="n">
-        <v>669.7547999999998</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1116.258</v>
-      </c>
-      <c r="N64" t="n">
-        <v>446.5031999999999</v>
-      </c>
-      <c r="O64" t="n">
-        <v>446.5031999999999</v>
-      </c>
-      <c r="P64" t="n">
-        <v>334.8773999999999</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>334.8773999999999</v>
-      </c>
-      <c r="R64" t="n">
-        <v>223.2516</v>
-      </c>
-      <c r="S64" t="n">
-        <v>446.5031999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7152</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>36658.24999999999</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3992.482673267325</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3629.529702970296</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3266.576732673267</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2903.623762376237</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2903.623762376237</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2903.623762376237</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2540.670792079208</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2177.717821782177</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1814.764851485148</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3992.482673267325</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1451.811881188119</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1088.858910891089</v>
-      </c>
-      <c r="R65" t="n">
-        <v>725.9059405940593</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1088.858910891089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2480.57</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>11162.58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1116.258</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1004.6322</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1004.6322</v>
+      </c>
+      <c r="G66" t="n">
+        <v>893.0063999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>781.3806</v>
+      </c>
+      <c r="I66" t="n">
+        <v>781.3806</v>
+      </c>
+      <c r="J66" t="n">
+        <v>781.3806</v>
+      </c>
+      <c r="K66" t="n">
+        <v>781.3806</v>
+      </c>
+      <c r="L66" t="n">
+        <v>669.7547999999998</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1116.258</v>
+      </c>
+      <c r="N66" t="n">
+        <v>446.5031999999999</v>
+      </c>
+      <c r="O66" t="n">
+        <v>446.5031999999999</v>
+      </c>
+      <c r="P66" t="n">
+        <v>334.8773999999999</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>334.8773999999999</v>
+      </c>
+      <c r="R66" t="n">
+        <v>223.2516</v>
+      </c>
+      <c r="S66" t="n">
+        <v>446.5031999999999</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>36658.24999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3992.482673267325</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3629.529702970296</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3266.576732673267</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2903.623762376237</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2903.623762376237</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2903.623762376237</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2540.670792079208</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2177.717821782177</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1814.764851485148</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3992.482673267325</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1451.811881188119</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>725.9059405940593</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1088.858910891089</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>860.02</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>3870.069999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>379.4186274509804</v>
-      </c>
-      <c r="E70" t="n">
-        <v>341.4767647058823</v>
-      </c>
-      <c r="F70" t="n">
-        <v>341.4767647058823</v>
-      </c>
-      <c r="G70" t="n">
-        <v>303.5349019607843</v>
-      </c>
-      <c r="H70" t="n">
-        <v>265.5930392156862</v>
-      </c>
-      <c r="I70" t="n">
-        <v>265.5930392156862</v>
-      </c>
-      <c r="J70" t="n">
-        <v>265.5930392156862</v>
-      </c>
-      <c r="K70" t="n">
-        <v>227.6511764705882</v>
-      </c>
-      <c r="L70" t="n">
-        <v>227.6511764705882</v>
-      </c>
-      <c r="M70" t="n">
-        <v>341.4767647058823</v>
-      </c>
-      <c r="N70" t="n">
-        <v>189.7093137254902</v>
-      </c>
-      <c r="O70" t="n">
-        <v>151.7674509803921</v>
-      </c>
-      <c r="P70" t="n">
-        <v>151.7674509803921</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>113.8255882352941</v>
-      </c>
-      <c r="R70" t="n">
-        <v>113.8255882352941</v>
-      </c>
-      <c r="S70" t="n">
-        <v>189.7093137254902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>783.47</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>3525.63</v>
-      </c>
-      <c r="D71" t="n">
-        <v>345.65</v>
-      </c>
-      <c r="E71" t="n">
-        <v>311.0849999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>311.0849999999999</v>
-      </c>
-      <c r="G71" t="n">
-        <v>276.52</v>
-      </c>
-      <c r="H71" t="n">
-        <v>241.955</v>
-      </c>
-      <c r="I71" t="n">
-        <v>241.955</v>
-      </c>
-      <c r="J71" t="n">
-        <v>241.955</v>
-      </c>
-      <c r="K71" t="n">
-        <v>207.39</v>
-      </c>
-      <c r="L71" t="n">
-        <v>207.39</v>
-      </c>
-      <c r="M71" t="n">
-        <v>311.0849999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>172.825</v>
-      </c>
-      <c r="O71" t="n">
-        <v>138.26</v>
-      </c>
-      <c r="P71" t="n">
-        <v>138.26</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>103.695</v>
-      </c>
-      <c r="R71" t="n">
-        <v>103.695</v>
-      </c>
-      <c r="S71" t="n">
-        <v>172.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>3816.08</v>
+        <v>859.91</v>
       </c>
       <c r="C72" t="n">
-        <v>18060.57</v>
+        <v>3869.61</v>
       </c>
       <c r="D72" t="n">
-        <v>1966.992772277227</v>
+        <v>379.3735294117647</v>
       </c>
       <c r="E72" t="n">
-        <v>1966.992772277227</v>
+        <v>341.4361764705882</v>
       </c>
       <c r="F72" t="n">
-        <v>1788.175247524752</v>
+        <v>341.4361764705882</v>
       </c>
       <c r="G72" t="n">
-        <v>1609.357722772277</v>
+        <v>303.4988235294117</v>
       </c>
       <c r="H72" t="n">
-        <v>1430.540198019802</v>
+        <v>265.5614705882353</v>
       </c>
       <c r="I72" t="n">
-        <v>1251.722673267327</v>
+        <v>265.5614705882353</v>
       </c>
       <c r="J72" t="n">
-        <v>1251.722673267327</v>
+        <v>265.5614705882353</v>
       </c>
       <c r="K72" t="n">
-        <v>1072.905148514851</v>
+        <v>227.6241176470588</v>
       </c>
       <c r="L72" t="n">
-        <v>894.087623762376</v>
+        <v>227.6241176470588</v>
       </c>
       <c r="M72" t="n">
-        <v>1966.992772277227</v>
+        <v>341.4361764705882</v>
       </c>
       <c r="N72" t="n">
-        <v>715.2700990099008</v>
+        <v>189.6867647058823</v>
       </c>
       <c r="O72" t="n">
-        <v>536.4525742574256</v>
+        <v>151.7494117647059</v>
       </c>
       <c r="P72" t="n">
-        <v>536.4525742574256</v>
+        <v>151.7494117647059</v>
       </c>
       <c r="Q72" t="n">
-        <v>357.6350495049504</v>
+        <v>113.8120588235294</v>
       </c>
       <c r="R72" t="n">
-        <v>357.6350495049504</v>
+        <v>113.8120588235294</v>
       </c>
       <c r="S72" t="n">
-        <v>357.6350495049504</v>
+        <v>189.6867647058823</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>365.43</v>
+        <v>783.35</v>
       </c>
       <c r="C73" t="n">
-        <v>1644.45</v>
+        <v>3525.079999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>164.445</v>
+        <v>345.5960784313725</v>
       </c>
       <c r="E73" t="n">
-        <v>148.0005</v>
+        <v>311.0364705882352</v>
       </c>
       <c r="F73" t="n">
-        <v>148.0005</v>
+        <v>311.0364705882352</v>
       </c>
       <c r="G73" t="n">
-        <v>131.556</v>
+        <v>276.476862745098</v>
       </c>
       <c r="H73" t="n">
-        <v>115.1115</v>
+        <v>241.9172549019607</v>
       </c>
       <c r="I73" t="n">
-        <v>115.1115</v>
+        <v>241.9172549019607</v>
       </c>
       <c r="J73" t="n">
-        <v>115.1115</v>
+        <v>241.9172549019607</v>
       </c>
       <c r="K73" t="n">
-        <v>98.66699999999997</v>
+        <v>207.3576470588235</v>
       </c>
       <c r="L73" t="n">
-        <v>98.66699999999997</v>
+        <v>207.3576470588235</v>
       </c>
       <c r="M73" t="n">
-        <v>164.445</v>
+        <v>311.0364705882352</v>
       </c>
       <c r="N73" t="n">
-        <v>65.77799999999999</v>
+        <v>172.7980392156862</v>
       </c>
       <c r="O73" t="n">
-        <v>65.77799999999999</v>
+        <v>138.238431372549</v>
       </c>
       <c r="P73" t="n">
-        <v>65.77799999999999</v>
+        <v>138.238431372549</v>
       </c>
       <c r="Q73" t="n">
-        <v>49.33349999999999</v>
+        <v>103.6788235294117</v>
       </c>
       <c r="R73" t="n">
-        <v>32.889</v>
+        <v>103.6788235294117</v>
       </c>
       <c r="S73" t="n">
-        <v>65.77799999999999</v>
+        <v>172.7980392156862</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>1161.28</v>
+        <v>3812.75</v>
       </c>
       <c r="C74" t="n">
-        <v>4889.359999999999</v>
+        <v>18045.59</v>
       </c>
       <c r="D74" t="n">
-        <v>488.9359999999999</v>
+        <v>1965.361287128712</v>
       </c>
       <c r="E74" t="n">
-        <v>440.0423999999999</v>
+        <v>1965.361287128712</v>
       </c>
       <c r="F74" t="n">
-        <v>440.0423999999999</v>
+        <v>1786.69207920792</v>
       </c>
       <c r="G74" t="n">
-        <v>391.1487999999999</v>
+        <v>1608.022871287129</v>
       </c>
       <c r="H74" t="n">
-        <v>342.2551999999999</v>
+        <v>1429.353663366336</v>
       </c>
       <c r="I74" t="n">
-        <v>342.2551999999999</v>
+        <v>1250.684455445544</v>
       </c>
       <c r="J74" t="n">
-        <v>342.2551999999999</v>
+        <v>1250.684455445544</v>
       </c>
       <c r="K74" t="n">
-        <v>293.3615999999999</v>
+        <v>1072.015247524752</v>
       </c>
       <c r="L74" t="n">
-        <v>293.3615999999999</v>
+        <v>893.3460396039602</v>
       </c>
       <c r="M74" t="n">
-        <v>488.9359999999999</v>
+        <v>1965.361287128712</v>
       </c>
       <c r="N74" t="n">
-        <v>195.5744</v>
+        <v>714.6768316831682</v>
       </c>
       <c r="O74" t="n">
-        <v>195.5744</v>
+        <v>536.0076237623761</v>
       </c>
       <c r="P74" t="n">
-        <v>195.5744</v>
+        <v>536.0076237623761</v>
       </c>
       <c r="Q74" t="n">
-        <v>146.6807999999999</v>
+        <v>357.3384158415841</v>
       </c>
       <c r="R74" t="n">
-        <v>97.78719999999998</v>
+        <v>357.3384158415841</v>
       </c>
       <c r="S74" t="n">
-        <v>195.5744</v>
+        <v>357.3384158415841</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1015.48</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>4158.58</v>
-      </c>
-      <c r="D75" t="n">
-        <v>411.7405940594059</v>
-      </c>
-      <c r="E75" t="n">
-        <v>370.5665346534653</v>
-      </c>
-      <c r="F75" t="n">
-        <v>370.5665346534653</v>
-      </c>
-      <c r="G75" t="n">
-        <v>329.3924752475247</v>
-      </c>
-      <c r="H75" t="n">
-        <v>288.2184158415841</v>
-      </c>
-      <c r="I75" t="n">
-        <v>288.2184158415841</v>
-      </c>
-      <c r="J75" t="n">
-        <v>288.2184158415841</v>
-      </c>
-      <c r="K75" t="n">
-        <v>288.2184158415841</v>
-      </c>
-      <c r="L75" t="n">
-        <v>205.8702970297029</v>
-      </c>
-      <c r="M75" t="n">
-        <v>411.7405940594059</v>
-      </c>
-      <c r="N75" t="n">
-        <v>164.6962376237624</v>
-      </c>
-      <c r="O75" t="n">
-        <v>123.5221782178217</v>
-      </c>
-      <c r="P75" t="n">
-        <v>164.6962376237624</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>164.6962376237624</v>
-      </c>
-      <c r="R75" t="n">
-        <v>123.5221782178217</v>
-      </c>
-      <c r="S75" t="n">
-        <v>164.6962376237624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>1060.18</v>
+        <v>1161.28</v>
       </c>
       <c r="C76" t="n">
-        <v>4332.369999999999</v>
+        <v>4889.359999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>428.9475247524751</v>
+        <v>488.9359999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>386.0527722772276</v>
+        <v>440.0423999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>386.0527722772276</v>
+        <v>440.0423999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>343.1580198019801</v>
+        <v>391.1487999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>300.2632673267327</v>
+        <v>342.2551999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>300.2632673267327</v>
+        <v>342.2551999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>300.2632673267327</v>
+        <v>342.2551999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>300.2632673267327</v>
+        <v>293.3615999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>214.4737623762376</v>
+        <v>293.3615999999999</v>
       </c>
       <c r="M76" t="n">
-        <v>428.9475247524751</v>
+        <v>488.9359999999999</v>
       </c>
       <c r="N76" t="n">
-        <v>171.5790099009901</v>
+        <v>195.5744</v>
       </c>
       <c r="O76" t="n">
-        <v>128.6842574257425</v>
+        <v>195.5744</v>
       </c>
       <c r="P76" t="n">
-        <v>171.5790099009901</v>
+        <v>195.5744</v>
       </c>
       <c r="Q76" t="n">
-        <v>171.5790099009901</v>
+        <v>146.6807999999999</v>
       </c>
       <c r="R76" t="n">
-        <v>128.6842574257425</v>
+        <v>97.78719999999998</v>
       </c>
       <c r="S76" t="n">
-        <v>171.5790099009901</v>
+        <v>195.5744</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>544.3200000000001</v>
+        <v>1015.13</v>
       </c>
       <c r="C77" t="n">
-        <v>2263.75</v>
+        <v>4156.999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>224.1336633663366</v>
+        <v>411.5841584158415</v>
       </c>
       <c r="E77" t="n">
-        <v>201.7202970297029</v>
+        <v>370.4257425742574</v>
       </c>
       <c r="F77" t="n">
-        <v>201.7202970297029</v>
+        <v>370.4257425742574</v>
       </c>
       <c r="G77" t="n">
-        <v>179.3069306930693</v>
+        <v>329.2673267326732</v>
       </c>
       <c r="H77" t="n">
-        <v>156.8935643564356</v>
+        <v>288.1089108910891</v>
       </c>
       <c r="I77" t="n">
-        <v>156.8935643564356</v>
+        <v>288.1089108910891</v>
       </c>
       <c r="J77" t="n">
-        <v>156.8935643564356</v>
+        <v>288.1089108910891</v>
       </c>
       <c r="K77" t="n">
-        <v>156.8935643564356</v>
+        <v>288.1089108910891</v>
       </c>
       <c r="L77" t="n">
-        <v>112.0668316831683</v>
+        <v>205.7920792079208</v>
       </c>
       <c r="M77" t="n">
-        <v>224.1336633663366</v>
+        <v>411.5841584158415</v>
       </c>
       <c r="N77" t="n">
-        <v>89.65346534653465</v>
+        <v>164.6336633663366</v>
       </c>
       <c r="O77" t="n">
-        <v>67.24009900990097</v>
+        <v>123.4752475247524</v>
       </c>
       <c r="P77" t="n">
-        <v>89.65346534653465</v>
+        <v>164.6336633663366</v>
       </c>
       <c r="Q77" t="n">
-        <v>89.65346534653465</v>
+        <v>164.6336633663366</v>
       </c>
       <c r="R77" t="n">
-        <v>67.24009900990097</v>
+        <v>123.4752475247524</v>
       </c>
       <c r="S77" t="n">
-        <v>89.65346534653465</v>
+        <v>164.6336633663366</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>2043.25</v>
+        <v>1059.84</v>
       </c>
       <c r="C78" t="n">
-        <v>10411.68</v>
+        <v>4330.829999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1133.945346534653</v>
+        <v>428.7950495049504</v>
       </c>
       <c r="E78" t="n">
-        <v>1133.945346534653</v>
+        <v>385.9155445544554</v>
       </c>
       <c r="F78" t="n">
-        <v>1030.859405940594</v>
+        <v>385.9155445544554</v>
       </c>
       <c r="G78" t="n">
-        <v>927.7734653465345</v>
+        <v>343.0360396039603</v>
       </c>
       <c r="H78" t="n">
-        <v>824.6875247524752</v>
+        <v>300.1565346534653</v>
       </c>
       <c r="I78" t="n">
-        <v>721.6015841584158</v>
+        <v>300.1565346534653</v>
       </c>
       <c r="J78" t="n">
-        <v>721.6015841584158</v>
+        <v>300.1565346534653</v>
       </c>
       <c r="K78" t="n">
-        <v>618.5156435643563</v>
+        <v>300.1565346534653</v>
       </c>
       <c r="L78" t="n">
-        <v>515.4297029702969</v>
+        <v>214.3975247524752</v>
       </c>
       <c r="M78" t="n">
-        <v>1133.945346534653</v>
+        <v>428.7950495049504</v>
       </c>
       <c r="N78" t="n">
-        <v>412.3437623762376</v>
+        <v>171.5180198019802</v>
       </c>
       <c r="O78" t="n">
-        <v>309.2578217821782</v>
+        <v>128.6385148514851</v>
       </c>
       <c r="P78" t="n">
-        <v>309.2578217821782</v>
+        <v>171.5180198019802</v>
       </c>
       <c r="Q78" t="n">
-        <v>206.1718811881188</v>
+        <v>171.5180198019802</v>
       </c>
       <c r="R78" t="n">
-        <v>206.1718811881188</v>
+        <v>128.6385148514851</v>
       </c>
       <c r="S78" t="n">
-        <v>206.1718811881188</v>
+        <v>171.5180198019802</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>204.22</v>
+        <v>544.03</v>
       </c>
       <c r="C79" t="n">
-        <v>813.9599999999998</v>
+        <v>2262.46</v>
       </c>
       <c r="D79" t="n">
-        <v>80.59009900990098</v>
+        <v>224.0059405940594</v>
       </c>
       <c r="E79" t="n">
-        <v>72.53108910891088</v>
+        <v>201.6053465346534</v>
       </c>
       <c r="F79" t="n">
-        <v>72.53108910891088</v>
+        <v>201.6053465346534</v>
       </c>
       <c r="G79" t="n">
-        <v>64.47207920792079</v>
+        <v>179.2047524752475</v>
       </c>
       <c r="H79" t="n">
-        <v>56.41306930693069</v>
+        <v>156.8041584158416</v>
       </c>
       <c r="I79" t="n">
-        <v>56.41306930693069</v>
+        <v>156.8041584158416</v>
       </c>
       <c r="J79" t="n">
-        <v>56.41306930693069</v>
+        <v>156.8041584158416</v>
       </c>
       <c r="K79" t="n">
-        <v>56.41306930693069</v>
+        <v>156.8041584158416</v>
       </c>
       <c r="L79" t="n">
-        <v>40.29504950495049</v>
+        <v>112.0029702970297</v>
       </c>
       <c r="M79" t="n">
-        <v>80.59009900990098</v>
+        <v>224.0059405940594</v>
       </c>
       <c r="N79" t="n">
-        <v>32.23603960396039</v>
+        <v>89.60237623762374</v>
       </c>
       <c r="O79" t="n">
-        <v>24.17702970297029</v>
+        <v>67.2017821782178</v>
       </c>
       <c r="P79" t="n">
-        <v>32.23603960396039</v>
+        <v>89.60237623762374</v>
       </c>
       <c r="Q79" t="n">
-        <v>32.23603960396039</v>
+        <v>89.60237623762374</v>
       </c>
       <c r="R79" t="n">
-        <v>24.17702970297029</v>
+        <v>67.2017821782178</v>
       </c>
       <c r="S79" t="n">
-        <v>32.23603960396039</v>
+        <v>89.60237623762374</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>1234.44</v>
+        <v>2043.25</v>
       </c>
       <c r="C80" t="n">
-        <v>4967.479999999998</v>
+        <v>10411.68</v>
       </c>
       <c r="D80" t="n">
-        <v>491.8297029702969</v>
+        <v>1133.945346534653</v>
       </c>
       <c r="E80" t="n">
-        <v>442.6467326732672</v>
+        <v>1133.945346534653</v>
       </c>
       <c r="F80" t="n">
-        <v>442.6467326732672</v>
+        <v>1030.859405940594</v>
       </c>
       <c r="G80" t="n">
-        <v>393.4637623762375</v>
+        <v>927.7734653465345</v>
       </c>
       <c r="H80" t="n">
-        <v>344.2807920792079</v>
+        <v>824.6875247524752</v>
       </c>
       <c r="I80" t="n">
-        <v>344.2807920792079</v>
+        <v>721.6015841584158</v>
       </c>
       <c r="J80" t="n">
-        <v>344.2807920792079</v>
+        <v>721.6015841584158</v>
       </c>
       <c r="K80" t="n">
-        <v>344.2807920792079</v>
+        <v>618.5156435643563</v>
       </c>
       <c r="L80" t="n">
-        <v>245.9148514851484</v>
+        <v>515.4297029702969</v>
       </c>
       <c r="M80" t="n">
-        <v>491.8297029702969</v>
+        <v>1133.945346534653</v>
       </c>
       <c r="N80" t="n">
-        <v>196.7318811881188</v>
+        <v>412.3437623762376</v>
       </c>
       <c r="O80" t="n">
-        <v>147.5489108910891</v>
+        <v>309.2578217821782</v>
       </c>
       <c r="P80" t="n">
-        <v>196.7318811881188</v>
+        <v>309.2578217821782</v>
       </c>
       <c r="Q80" t="n">
-        <v>196.7318811881188</v>
+        <v>206.1718811881188</v>
       </c>
       <c r="R80" t="n">
-        <v>147.5489108910891</v>
+        <v>206.1718811881188</v>
       </c>
       <c r="S80" t="n">
-        <v>196.7318811881188</v>
+        <v>206.1718811881188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>864.23</v>
+        <v>204.22</v>
       </c>
       <c r="C81" t="n">
-        <v>3570.67</v>
+        <v>813.9299999999998</v>
       </c>
       <c r="D81" t="n">
-        <v>353.5316831683168</v>
+        <v>80.58712871287126</v>
       </c>
       <c r="E81" t="n">
-        <v>318.1785148514851</v>
+        <v>72.52841584158413</v>
       </c>
       <c r="F81" t="n">
-        <v>318.1785148514851</v>
+        <v>72.52841584158413</v>
       </c>
       <c r="G81" t="n">
-        <v>282.8253465346534</v>
+        <v>64.46970297029702</v>
       </c>
       <c r="H81" t="n">
-        <v>247.4721782178217</v>
+        <v>56.41099009900989</v>
       </c>
       <c r="I81" t="n">
-        <v>247.4721782178217</v>
+        <v>56.41099009900989</v>
       </c>
       <c r="J81" t="n">
-        <v>247.4721782178217</v>
+        <v>56.41099009900989</v>
       </c>
       <c r="K81" t="n">
-        <v>247.4721782178217</v>
+        <v>56.41099009900989</v>
       </c>
       <c r="L81" t="n">
-        <v>176.7658415841584</v>
+        <v>40.29356435643563</v>
       </c>
       <c r="M81" t="n">
-        <v>353.5316831683168</v>
+        <v>80.58712871287126</v>
       </c>
       <c r="N81" t="n">
-        <v>141.4126732673267</v>
+        <v>32.23485148514851</v>
       </c>
       <c r="O81" t="n">
-        <v>106.059504950495</v>
+        <v>24.17613861386138</v>
       </c>
       <c r="P81" t="n">
-        <v>141.4126732673267</v>
+        <v>32.23485148514851</v>
       </c>
       <c r="Q81" t="n">
-        <v>141.4126732673267</v>
+        <v>32.23485148514851</v>
       </c>
       <c r="R81" t="n">
-        <v>106.059504950495</v>
+        <v>24.17613861386138</v>
       </c>
       <c r="S81" t="n">
-        <v>141.4126732673267</v>
+        <v>32.23485148514851</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>844.47</v>
+        <v>1234.27</v>
       </c>
       <c r="C82" t="n">
-        <v>3493.84</v>
+        <v>4966.68</v>
       </c>
       <c r="D82" t="n">
-        <v>345.9247524752474</v>
+        <v>491.7504950495049</v>
       </c>
       <c r="E82" t="n">
-        <v>311.3322772277227</v>
+        <v>442.5754455445544</v>
       </c>
       <c r="F82" t="n">
-        <v>311.3322772277227</v>
+        <v>442.5754455445544</v>
       </c>
       <c r="G82" t="n">
-        <v>276.739801980198</v>
+        <v>393.4003960396039</v>
       </c>
       <c r="H82" t="n">
-        <v>242.1473267326733</v>
+        <v>344.2253465346535</v>
       </c>
       <c r="I82" t="n">
-        <v>242.1473267326733</v>
+        <v>344.2253465346535</v>
       </c>
       <c r="J82" t="n">
-        <v>242.1473267326733</v>
+        <v>344.2253465346535</v>
       </c>
       <c r="K82" t="n">
-        <v>242.1473267326733</v>
+        <v>344.2253465346535</v>
       </c>
       <c r="L82" t="n">
-        <v>172.9623762376237</v>
+        <v>245.8752475247524</v>
       </c>
       <c r="M82" t="n">
-        <v>345.9247524752474</v>
+        <v>491.7504950495049</v>
       </c>
       <c r="N82" t="n">
-        <v>138.369900990099</v>
+        <v>196.700198019802</v>
       </c>
       <c r="O82" t="n">
-        <v>103.7774257425742</v>
+        <v>147.5251485148515</v>
       </c>
       <c r="P82" t="n">
-        <v>138.369900990099</v>
+        <v>196.700198019802</v>
       </c>
       <c r="Q82" t="n">
-        <v>138.369900990099</v>
+        <v>196.700198019802</v>
       </c>
       <c r="R82" t="n">
-        <v>103.7774257425742</v>
+        <v>147.5251485148515</v>
       </c>
       <c r="S82" t="n">
-        <v>138.369900990099</v>
+        <v>196.700198019802</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>3626.17</v>
+        <v>863.84</v>
       </c>
       <c r="C83" t="n">
-        <v>16137.74</v>
+        <v>3568.919999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1757.575643564356</v>
+        <v>353.3584158415841</v>
       </c>
       <c r="E83" t="n">
-        <v>1597.79603960396</v>
+        <v>318.0225742574257</v>
       </c>
       <c r="F83" t="n">
-        <v>1597.79603960396</v>
+        <v>318.0225742574257</v>
       </c>
       <c r="G83" t="n">
-        <v>1438.016435643564</v>
+        <v>282.6867326732673</v>
       </c>
       <c r="H83" t="n">
-        <v>1278.236831683168</v>
+        <v>247.3508910891089</v>
       </c>
       <c r="I83" t="n">
-        <v>1118.457227722772</v>
+        <v>247.3508910891089</v>
       </c>
       <c r="J83" t="n">
-        <v>1118.457227722772</v>
+        <v>247.3508910891089</v>
       </c>
       <c r="K83" t="n">
-        <v>958.6776237623759</v>
+        <v>247.3508910891089</v>
       </c>
       <c r="L83" t="n">
-        <v>798.89801980198</v>
+        <v>176.679207920792</v>
       </c>
       <c r="M83" t="n">
-        <v>1757.575643564356</v>
+        <v>353.3584158415841</v>
       </c>
       <c r="N83" t="n">
-        <v>639.118415841584</v>
+        <v>141.3433663366336</v>
       </c>
       <c r="O83" t="n">
-        <v>479.338811881188</v>
+        <v>106.0075247524752</v>
       </c>
       <c r="P83" t="n">
-        <v>479.338811881188</v>
+        <v>141.3433663366336</v>
       </c>
       <c r="Q83" t="n">
-        <v>479.338811881188</v>
+        <v>141.3433663366336</v>
       </c>
       <c r="R83" t="n">
-        <v>319.559207920792</v>
+        <v>106.0075247524752</v>
       </c>
       <c r="S83" t="n">
-        <v>319.559207920792</v>
+        <v>141.3433663366336</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>1908.43</v>
+        <v>844.0700000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>8040.409999999997</v>
+        <v>3492.07</v>
       </c>
       <c r="D84" t="n">
-        <v>812.162626262626</v>
+        <v>345.749504950495</v>
       </c>
       <c r="E84" t="n">
-        <v>812.162626262626</v>
+        <v>311.1745544554455</v>
       </c>
       <c r="F84" t="n">
-        <v>730.9463636363633</v>
+        <v>311.1745544554455</v>
       </c>
       <c r="G84" t="n">
-        <v>649.7301010101008</v>
+        <v>276.599603960396</v>
       </c>
       <c r="H84" t="n">
-        <v>568.5138383838382</v>
+        <v>242.0246534653465</v>
       </c>
       <c r="I84" t="n">
-        <v>568.5138383838382</v>
+        <v>242.0246534653465</v>
       </c>
       <c r="J84" t="n">
-        <v>568.5138383838382</v>
+        <v>242.0246534653465</v>
       </c>
       <c r="K84" t="n">
-        <v>568.5138383838382</v>
+        <v>242.0246534653465</v>
       </c>
       <c r="L84" t="n">
-        <v>406.081313131313</v>
+        <v>172.8747524752475</v>
       </c>
       <c r="M84" t="n">
-        <v>812.162626262626</v>
+        <v>345.749504950495</v>
       </c>
       <c r="N84" t="n">
-        <v>324.8650505050504</v>
+        <v>138.299801980198</v>
       </c>
       <c r="O84" t="n">
-        <v>243.6487878787878</v>
+        <v>103.7248514851485</v>
       </c>
       <c r="P84" t="n">
-        <v>324.8650505050504</v>
+        <v>138.299801980198</v>
       </c>
       <c r="Q84" t="n">
-        <v>243.6487878787878</v>
+        <v>138.299801980198</v>
       </c>
       <c r="R84" t="n">
-        <v>162.4325252525252</v>
+        <v>103.7248514851485</v>
       </c>
       <c r="S84" t="n">
-        <v>243.6487878787878</v>
+        <v>138.299801980198</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>1060.55</v>
+        <v>3625.76</v>
       </c>
       <c r="C85" t="n">
-        <v>4803.489999999999</v>
+        <v>16135.88999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>436.6809090909089</v>
+        <v>1757.374158415841</v>
       </c>
       <c r="E85" t="n">
-        <v>388.160808080808</v>
+        <v>1597.612871287128</v>
       </c>
       <c r="F85" t="n">
-        <v>339.640707070707</v>
+        <v>1597.612871287128</v>
       </c>
       <c r="G85" t="n">
-        <v>339.640707070707</v>
+        <v>1437.851584158416</v>
       </c>
       <c r="H85" t="n">
-        <v>291.120606060606</v>
+        <v>1278.090297029703</v>
       </c>
       <c r="I85" t="n">
-        <v>291.120606060606</v>
+        <v>1118.32900990099</v>
       </c>
       <c r="J85" t="n">
-        <v>291.120606060606</v>
+        <v>1118.32900990099</v>
       </c>
       <c r="K85" t="n">
-        <v>291.120606060606</v>
+        <v>958.567722772277</v>
       </c>
       <c r="L85" t="n">
-        <v>291.120606060606</v>
+        <v>798.8064356435641</v>
       </c>
       <c r="M85" t="n">
-        <v>388.160808080808</v>
+        <v>1757.374158415841</v>
       </c>
       <c r="N85" t="n">
-        <v>242.600505050505</v>
+        <v>639.0451485148513</v>
       </c>
       <c r="O85" t="n">
-        <v>242.600505050505</v>
+        <v>479.2838613861385</v>
       </c>
       <c r="P85" t="n">
-        <v>242.600505050505</v>
+        <v>479.2838613861385</v>
       </c>
       <c r="Q85" t="n">
-        <v>242.600505050505</v>
+        <v>479.2838613861385</v>
       </c>
       <c r="R85" t="n">
-        <v>145.560303030303</v>
+        <v>319.5225742574257</v>
       </c>
       <c r="S85" t="n">
-        <v>339.640707070707</v>
+        <v>319.5225742574257</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>579.66</v>
+        <v>1908.04</v>
       </c>
       <c r="C86" t="n">
-        <v>2629.489999999999</v>
+        <v>8038.669999999998</v>
       </c>
       <c r="D86" t="n">
-        <v>234.3109900990098</v>
+        <v>811.9868686868684</v>
       </c>
       <c r="E86" t="n">
-        <v>208.2764356435643</v>
+        <v>811.9868686868684</v>
       </c>
       <c r="F86" t="n">
-        <v>208.2764356435643</v>
+        <v>730.7881818181816</v>
       </c>
       <c r="G86" t="n">
-        <v>182.2418811881188</v>
+        <v>649.5894949494948</v>
       </c>
       <c r="H86" t="n">
-        <v>156.2073267326732</v>
+        <v>568.3908080808079</v>
       </c>
       <c r="I86" t="n">
-        <v>156.2073267326732</v>
+        <v>568.3908080808079</v>
       </c>
       <c r="J86" t="n">
-        <v>156.2073267326732</v>
+        <v>568.3908080808079</v>
       </c>
       <c r="K86" t="n">
-        <v>182.2418811881188</v>
+        <v>568.3908080808079</v>
       </c>
       <c r="L86" t="n">
-        <v>130.1727722772277</v>
+        <v>405.9934343434342</v>
       </c>
       <c r="M86" t="n">
-        <v>208.2764356435643</v>
+        <v>811.9868686868684</v>
       </c>
       <c r="N86" t="n">
-        <v>156.2073267326732</v>
+        <v>324.7947474747474</v>
       </c>
       <c r="O86" t="n">
-        <v>130.1727722772277</v>
+        <v>243.5960606060605</v>
       </c>
       <c r="P86" t="n">
-        <v>130.1727722772277</v>
+        <v>324.7947474747474</v>
       </c>
       <c r="Q86" t="n">
-        <v>104.1382178217821</v>
+        <v>243.5960606060605</v>
       </c>
       <c r="R86" t="n">
-        <v>104.1382178217821</v>
+        <v>162.3973737373737</v>
       </c>
       <c r="S86" t="n">
-        <v>182.2418811881188</v>
+        <v>243.5960606060605</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>5266.97</v>
+        <v>1059.49</v>
       </c>
       <c r="C87" t="n">
-        <v>23767.36</v>
+        <v>4767.689999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2353.203960396039</v>
+        <v>433.4263636363635</v>
       </c>
       <c r="E87" t="n">
-        <v>2117.883564356435</v>
+        <v>385.2678787878787</v>
       </c>
       <c r="F87" t="n">
-        <v>2117.883564356435</v>
+        <v>337.1093939393939</v>
       </c>
       <c r="G87" t="n">
-        <v>1882.563168316831</v>
+        <v>337.1093939393939</v>
       </c>
       <c r="H87" t="n">
-        <v>1647.242772277228</v>
+        <v>288.950909090909</v>
       </c>
       <c r="I87" t="n">
-        <v>1647.242772277228</v>
+        <v>288.950909090909</v>
       </c>
       <c r="J87" t="n">
-        <v>1647.242772277228</v>
+        <v>288.950909090909</v>
       </c>
       <c r="K87" t="n">
-        <v>1411.922376237623</v>
+        <v>288.950909090909</v>
       </c>
       <c r="L87" t="n">
-        <v>1411.922376237623</v>
+        <v>288.950909090909</v>
       </c>
       <c r="M87" t="n">
-        <v>2117.883564356435</v>
+        <v>385.2678787878787</v>
       </c>
       <c r="N87" t="n">
-        <v>1176.60198019802</v>
+        <v>240.7924242424242</v>
       </c>
       <c r="O87" t="n">
-        <v>941.2815841584157</v>
+        <v>240.7924242424242</v>
       </c>
       <c r="P87" t="n">
-        <v>941.2815841584157</v>
+        <v>240.7924242424242</v>
       </c>
       <c r="Q87" t="n">
-        <v>705.9611881188117</v>
+        <v>240.7924242424242</v>
       </c>
       <c r="R87" t="n">
-        <v>705.9611881188117</v>
+        <v>144.4754545454545</v>
       </c>
       <c r="S87" t="n">
-        <v>941.2815841584157</v>
+        <v>337.1093939393939</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>2810.81</v>
+        <v>578.98</v>
       </c>
       <c r="C88" t="n">
-        <v>11683.69</v>
+        <v>2605.389999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1062.153636363636</v>
+        <v>232.1634653465346</v>
       </c>
       <c r="E88" t="n">
-        <v>1062.153636363636</v>
+        <v>206.3675247524752</v>
       </c>
       <c r="F88" t="n">
-        <v>944.1365656565655</v>
+        <v>206.3675247524752</v>
       </c>
       <c r="G88" t="n">
-        <v>944.1365656565655</v>
+        <v>180.5715841584158</v>
       </c>
       <c r="H88" t="n">
-        <v>826.119494949495</v>
+        <v>154.7756435643564</v>
       </c>
       <c r="I88" t="n">
-        <v>708.1024242424241</v>
+        <v>154.7756435643564</v>
       </c>
       <c r="J88" t="n">
-        <v>708.1024242424241</v>
+        <v>154.7756435643564</v>
       </c>
       <c r="K88" t="n">
-        <v>708.1024242424241</v>
+        <v>180.5715841584158</v>
       </c>
       <c r="L88" t="n">
-        <v>708.1024242424241</v>
+        <v>128.979702970297</v>
       </c>
       <c r="M88" t="n">
-        <v>1062.153636363636</v>
+        <v>206.3675247524752</v>
       </c>
       <c r="N88" t="n">
-        <v>590.0853535353534</v>
+        <v>154.7756435643564</v>
       </c>
       <c r="O88" t="n">
-        <v>472.0682828282827</v>
+        <v>128.979702970297</v>
       </c>
       <c r="P88" t="n">
-        <v>472.0682828282827</v>
+        <v>128.979702970297</v>
       </c>
       <c r="Q88" t="n">
-        <v>354.0512121212121</v>
+        <v>103.1837623762376</v>
       </c>
       <c r="R88" t="n">
-        <v>354.0512121212121</v>
+        <v>103.1837623762376</v>
       </c>
       <c r="S88" t="n">
-        <v>708.1024242424241</v>
+        <v>180.5715841584158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>1846.64</v>
+        <v>5266.97</v>
       </c>
       <c r="C89" t="n">
-        <v>7726.94</v>
+        <v>23701.36</v>
       </c>
       <c r="D89" t="n">
-        <v>858.5488888888888</v>
+        <v>2346.669306930693</v>
       </c>
       <c r="E89" t="n">
-        <v>780.4989898989899</v>
+        <v>2112.002376237624</v>
       </c>
       <c r="F89" t="n">
-        <v>780.4989898989899</v>
+        <v>2112.002376237624</v>
       </c>
       <c r="G89" t="n">
-        <v>624.3991919191918</v>
+        <v>1877.335445544554</v>
       </c>
       <c r="H89" t="n">
-        <v>546.3492929292929</v>
+        <v>1642.668514851485</v>
       </c>
       <c r="I89" t="n">
-        <v>546.3492929292929</v>
+        <v>1642.668514851485</v>
       </c>
       <c r="J89" t="n">
-        <v>624.3991919191918</v>
+        <v>1642.668514851485</v>
       </c>
       <c r="K89" t="n">
-        <v>468.2993939393939</v>
+        <v>1408.001584158415</v>
       </c>
       <c r="L89" t="n">
-        <v>390.2494949494949</v>
+        <v>1408.001584158415</v>
       </c>
       <c r="M89" t="n">
-        <v>858.5488888888888</v>
+        <v>2112.002376237624</v>
       </c>
       <c r="N89" t="n">
-        <v>234.1496969696969</v>
+        <v>1173.334653465346</v>
       </c>
       <c r="O89" t="n">
-        <v>234.1496969696969</v>
+        <v>938.6677227722771</v>
       </c>
       <c r="P89" t="n">
-        <v>234.1496969696969</v>
+        <v>938.6677227722771</v>
       </c>
       <c r="Q89" t="n">
-        <v>156.099797979798</v>
+        <v>704.0007920792077</v>
       </c>
       <c r="R89" t="n">
-        <v>156.099797979798</v>
+        <v>704.0007920792077</v>
       </c>
       <c r="S89" t="n">
-        <v>234.1496969696969</v>
+        <v>938.6677227722771</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>20.95</v>
+        <v>2810.81</v>
       </c>
       <c r="C90" t="n">
-        <v>94.25</v>
+        <v>11683.69</v>
       </c>
       <c r="D90" t="n">
-        <v>11.31</v>
+        <v>1062.153636363636</v>
       </c>
       <c r="E90" t="n">
-        <v>11.31</v>
+        <v>1062.153636363636</v>
       </c>
       <c r="F90" t="n">
-        <v>10.3675</v>
+        <v>944.1365656565655</v>
       </c>
       <c r="G90" t="n">
-        <v>9.425000000000001</v>
+        <v>944.1365656565655</v>
       </c>
       <c r="H90" t="n">
-        <v>7.54</v>
+        <v>826.119494949495</v>
       </c>
       <c r="I90" t="n">
-        <v>6.597500000000001</v>
+        <v>708.1024242424241</v>
       </c>
       <c r="J90" t="n">
-        <v>4.7125</v>
+        <v>708.1024242424241</v>
       </c>
       <c r="K90" t="n">
-        <v>4.7125</v>
+        <v>708.1024242424241</v>
       </c>
       <c r="L90" t="n">
-        <v>4.7125</v>
+        <v>708.1024242424241</v>
       </c>
       <c r="M90" t="n">
-        <v>11.31</v>
+        <v>1062.153636363636</v>
       </c>
       <c r="N90" t="n">
-        <v>3.77</v>
+        <v>590.0853535353534</v>
       </c>
       <c r="O90" t="n">
-        <v>2.8275</v>
+        <v>472.0682828282827</v>
       </c>
       <c r="P90" t="n">
-        <v>1.885</v>
+        <v>472.0682828282827</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.885</v>
+        <v>354.0512121212121</v>
       </c>
       <c r="R90" t="n">
-        <v>0.9425</v>
+        <v>354.0512121212121</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9425</v>
+        <v>708.1024242424241</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>372.18</v>
+        <v>1846.64</v>
       </c>
       <c r="C91" t="n">
-        <v>1674.8</v>
+        <v>7726.94</v>
       </c>
       <c r="D91" t="n">
-        <v>200.976</v>
+        <v>858.5488888888888</v>
       </c>
       <c r="E91" t="n">
-        <v>200.976</v>
+        <v>780.4989898989899</v>
       </c>
       <c r="F91" t="n">
-        <v>184.228</v>
+        <v>780.4989898989899</v>
       </c>
       <c r="G91" t="n">
-        <v>167.48</v>
+        <v>624.3991919191918</v>
       </c>
       <c r="H91" t="n">
-        <v>133.984</v>
+        <v>546.3492929292929</v>
       </c>
       <c r="I91" t="n">
-        <v>117.236</v>
+        <v>546.3492929292929</v>
       </c>
       <c r="J91" t="n">
-        <v>83.74000000000001</v>
+        <v>624.3991919191918</v>
       </c>
       <c r="K91" t="n">
-        <v>83.74000000000001</v>
+        <v>468.2993939393939</v>
       </c>
       <c r="L91" t="n">
-        <v>83.74000000000001</v>
+        <v>390.2494949494949</v>
       </c>
       <c r="M91" t="n">
-        <v>200.976</v>
+        <v>858.5488888888888</v>
       </c>
       <c r="N91" t="n">
-        <v>66.992</v>
+        <v>234.1496969696969</v>
       </c>
       <c r="O91" t="n">
-        <v>50.244</v>
+        <v>234.1496969696969</v>
       </c>
       <c r="P91" t="n">
-        <v>33.496</v>
+        <v>234.1496969696969</v>
       </c>
       <c r="Q91" t="n">
-        <v>33.496</v>
+        <v>156.099797979798</v>
       </c>
       <c r="R91" t="n">
-        <v>16.748</v>
+        <v>156.099797979798</v>
       </c>
       <c r="S91" t="n">
-        <v>16.748</v>
+        <v>234.1496969696969</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1371.273315235244</v>
+        <v>1371.273315235243</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4230.221759271561</v>
+        <v>4230.221759271563</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3740.185381028129</v>
+        <v>3740.185381028132</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>17240.23018612379</v>
+        <v>17240.23018612378</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>9777.73266842325</v>
+        <v>9777.732668423241</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>16807.00538496573</v>
+        <v>16807.00538496575</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>44090.74070513907</v>
+        <v>44090.74070513909</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>32594.48113606609</v>
+        <v>32594.48113606606</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1648.825023696268</v>
+        <v>1648.825023696269</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8078.307912329714</v>
+        <v>8078.307912329716</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2810.105803557798</v>
+        <v>2810.105803557799</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2548.671246382425</v>
+        <v>2548.671246382426</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>14562.88424001715</v>
+        <v>14562.88424001713</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3434.418882239568</v>
+        <v>3434.418882239565</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>8528.634095669826</v>
+        <v>8528.63409566981</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>7867.753658001444</v>
+        <v>7867.753658001441</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>41205.49866103204</v>
+        <v>41205.49866103206</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>11010.74630454678</v>
+        <v>11010.74630454679</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>13914.25831762753</v>
+        <v>13914.25831762752</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>29883.98482964802</v>
+        <v>29883.98482964803</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>6816.390350938424</v>
+        <v>6816.390350938429</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5744.921008708925</v>
+        <v>5744.921008708924</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4508.146104760076</v>
+        <v>4508.146104760075</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>712.0389003554238</v>
+        <v>712.0389003554236</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4065.34177725817</v>
+        <v>4065.341777258173</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2675.119308975952</v>
+        <v>2675.119308975951</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4540.013119907145</v>
+        <v>4540.013119907146</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7688.976093768694</v>
+        <v>7688.976093768692</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3808.780392796072</v>
+        <v>3808.780392796074</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4721.016544771003</v>
+        <v>4721.016544771004</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5279.512793185975</v>
+        <v>5279.512793185974</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6058.436836672232</v>
+        <v>6058.436836672234</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>8976.027627723119</v>
+        <v>8976.027627723115</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6285.813162421522</v>
+        <v>6285.81316242152</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>7862.015442828685</v>
+        <v>7862.015442828684</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>57478.63854531751</v>
+        <v>57478.63854531754</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>49822.08963675776</v>
+        <v>49822.08963675774</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>53692.00226821002</v>
+        <v>53692.00226820999</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>57410.05586562878</v>
+        <v>57410.05586562879</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>69796.92097183417</v>
+        <v>69796.92097183419</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>87242.05431125202</v>
+        <v>87242.05431125195</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1876.468180594003</v>
+        <v>1876.468180594002</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>15965.42215612852</v>
+        <v>15965.4221561285</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>9442.747057392524</v>
+        <v>9442.747057392526</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>9208.339121645828</v>
+        <v>9208.339121645831</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>3461.508374855664</v>
+        <v>3461.508374855663</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>4579.689413153123</v>
+        <v>4579.689413153125</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>15058.50597903036</v>
+        <v>15058.50597903035</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>5430.952579312494</v>
+        <v>5430.952579312495</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>29465.5095659371</v>
+        <v>29465.50956593708</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>18151.06774510583</v>
+        <v>18151.06774510585</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>73044.12736216636</v>
+        <v>73044.12736216643</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>13012.77442273422</v>
+        <v>13012.77442273421</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>24300.74054397946</v>
+        <v>24300.74054397947</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>30731.30061755627</v>
+        <v>30731.30061755625</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>43006.22692765288</v>
+        <v>43006.2269276529</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>8879.322577358715</v>
+        <v>8879.322577358716</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>10668.08003875793</v>
+        <v>10668.08003875794</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7087.788089231012</v>
+        <v>7087.78808923101</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3782.610119927699</v>
+        <v>3782.610119927701</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5089.807075229009</v>
+        <v>5089.807075229008</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>12764.19512247559</v>
+        <v>12764.1951224756</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>9713.585768914581</v>
+        <v>9713.585768914578</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>88290.55663788278</v>
+        <v>88290.55663788275</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>13500.57804742779</v>
+        <v>13500.57804742778</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>7730.312762644214</v>
+        <v>7730.312762644211</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>48124.39250075501</v>
+        <v>48124.392500755</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>32995.4521136471</v>
+        <v>32995.45211364709</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>45633.90824918672</v>
+        <v>45633.90824918677</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>34182.00799840569</v>
+        <v>34182.00799840568</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
